--- a/gcc/scattered erasure by key.xlsx
+++ b/gcc/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.439369</v>
+        <v>0.439064</v>
       </c>
       <c r="C2" t="n">
-        <v>0.390716</v>
+        <v>0.340351</v>
       </c>
       <c r="D2" t="n">
-        <v>0.355569</v>
+        <v>0.35506</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.44038</v>
+        <v>0.441262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.393849</v>
+        <v>0.343936</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3631</v>
+        <v>0.365307</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.443943</v>
+        <v>0.444638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.396432</v>
+        <v>0.347047</v>
       </c>
       <c r="D4" t="n">
-        <v>0.361123</v>
+        <v>0.360288</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.44801</v>
+        <v>0.448514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.399947</v>
+        <v>0.348737</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365465</v>
+        <v>0.365608</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.449549</v>
+        <v>0.451141</v>
       </c>
       <c r="C6" t="n">
-        <v>0.402313</v>
+        <v>0.349939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.374693</v>
+        <v>0.37333</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4533</v>
+        <v>0.453616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.403311</v>
+        <v>0.353117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.367931</v>
+        <v>0.367603</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.455378</v>
+        <v>0.456536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.406145</v>
+        <v>0.354634</v>
       </c>
       <c r="D8" t="n">
-        <v>0.368022</v>
+        <v>0.369145</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.45698</v>
+        <v>0.457726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.406376</v>
+        <v>0.3563</v>
       </c>
       <c r="D9" t="n">
-        <v>0.369286</v>
+        <v>0.369114</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.460089</v>
+        <v>0.460683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.40845</v>
+        <v>0.358027</v>
       </c>
       <c r="D10" t="n">
-        <v>0.370001</v>
+        <v>0.369962</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.462911</v>
+        <v>0.464042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.411741</v>
+        <v>0.359438</v>
       </c>
       <c r="D11" t="n">
-        <v>0.372878</v>
+        <v>0.372235</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465845</v>
+        <v>0.467199</v>
       </c>
       <c r="C12" t="n">
-        <v>0.41349</v>
+        <v>0.360647</v>
       </c>
       <c r="D12" t="n">
-        <v>0.374084</v>
+        <v>0.374202</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.467568</v>
+        <v>0.468448</v>
       </c>
       <c r="C13" t="n">
-        <v>0.413803</v>
+        <v>0.362331</v>
       </c>
       <c r="D13" t="n">
-        <v>0.375751</v>
+        <v>0.375895</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.469157</v>
+        <v>0.470743</v>
       </c>
       <c r="C14" t="n">
-        <v>0.416996</v>
+        <v>0.363909</v>
       </c>
       <c r="D14" t="n">
-        <v>0.379288</v>
+        <v>0.376511</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.470247</v>
+        <v>0.472817</v>
       </c>
       <c r="C15" t="n">
-        <v>0.416773</v>
+        <v>0.365226</v>
       </c>
       <c r="D15" t="n">
-        <v>0.38286</v>
+        <v>0.378334</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.473495</v>
+        <v>0.475045</v>
       </c>
       <c r="C16" t="n">
-        <v>0.41684</v>
+        <v>0.365678</v>
       </c>
       <c r="D16" t="n">
-        <v>0.379541</v>
+        <v>0.379182</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.475508</v>
+        <v>0.477437</v>
       </c>
       <c r="C17" t="n">
-        <v>0.418792</v>
+        <v>0.367391</v>
       </c>
       <c r="D17" t="n">
-        <v>0.380583</v>
+        <v>0.380387</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.474975</v>
+        <v>0.4765</v>
       </c>
       <c r="C18" t="n">
-        <v>0.420025</v>
+        <v>0.368744</v>
       </c>
       <c r="D18" t="n">
-        <v>0.391633</v>
+        <v>0.381475</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.476295</v>
+        <v>0.478855</v>
       </c>
       <c r="C19" t="n">
-        <v>0.422265</v>
+        <v>0.369918</v>
       </c>
       <c r="D19" t="n">
-        <v>0.38747</v>
+        <v>0.382996</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.477538</v>
+        <v>0.480066</v>
       </c>
       <c r="C20" t="n">
-        <v>0.423632</v>
+        <v>0.371033</v>
       </c>
       <c r="D20" t="n">
-        <v>0.390149</v>
+        <v>0.383351</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.478658</v>
+        <v>0.481874</v>
       </c>
       <c r="C21" t="n">
-        <v>0.421165</v>
+        <v>0.369821</v>
       </c>
       <c r="D21" t="n">
-        <v>0.384177</v>
+        <v>0.384015</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.480619</v>
+        <v>0.482278</v>
       </c>
       <c r="C22" t="n">
-        <v>0.422117</v>
+        <v>0.370514</v>
       </c>
       <c r="D22" t="n">
-        <v>0.385623</v>
+        <v>0.385172</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.482529</v>
+        <v>0.484431</v>
       </c>
       <c r="C23" t="n">
-        <v>0.422802</v>
+        <v>0.371254</v>
       </c>
       <c r="D23" t="n">
-        <v>0.385211</v>
+        <v>0.385816</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.484244</v>
+        <v>0.486135</v>
       </c>
       <c r="C24" t="n">
-        <v>0.423622</v>
+        <v>0.372397</v>
       </c>
       <c r="D24" t="n">
-        <v>0.387126</v>
+        <v>0.387429</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.485857</v>
+        <v>0.487807</v>
       </c>
       <c r="C25" t="n">
-        <v>0.425087</v>
+        <v>0.373552</v>
       </c>
       <c r="D25" t="n">
-        <v>0.389437</v>
+        <v>0.388676</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.487829</v>
+        <v>0.489432</v>
       </c>
       <c r="C26" t="n">
-        <v>0.424902</v>
+        <v>0.373496</v>
       </c>
       <c r="D26" t="n">
-        <v>0.388993</v>
+        <v>0.389085</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.489038</v>
+        <v>0.490842</v>
       </c>
       <c r="C27" t="n">
-        <v>0.426516</v>
+        <v>0.374409</v>
       </c>
       <c r="D27" t="n">
-        <v>0.390162</v>
+        <v>0.389888</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.490234</v>
+        <v>0.491804</v>
       </c>
       <c r="C28" t="n">
-        <v>0.427353</v>
+        <v>0.375924</v>
       </c>
       <c r="D28" t="n">
-        <v>0.391891</v>
+        <v>0.391524</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.491312</v>
+        <v>0.493144</v>
       </c>
       <c r="C29" t="n">
-        <v>0.42797</v>
+        <v>0.376625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.392645</v>
+        <v>0.392974</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.493506</v>
+        <v>0.49506</v>
       </c>
       <c r="C30" t="n">
-        <v>0.428825</v>
+        <v>0.376985</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392614</v>
+        <v>0.392701</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.495115</v>
+        <v>0.497363</v>
       </c>
       <c r="C31" t="n">
-        <v>0.42895</v>
+        <v>0.377798</v>
       </c>
       <c r="D31" t="n">
-        <v>0.393532</v>
+        <v>0.393977</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4913</v>
+        <v>0.49406</v>
       </c>
       <c r="C32" t="n">
-        <v>0.430703</v>
+        <v>0.378348</v>
       </c>
       <c r="D32" t="n">
-        <v>0.394892</v>
+        <v>0.39497</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.493352</v>
+        <v>0.49524</v>
       </c>
       <c r="C33" t="n">
-        <v>0.431175</v>
+        <v>0.378905</v>
       </c>
       <c r="D33" t="n">
-        <v>0.395161</v>
+        <v>0.399533</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.494822</v>
+        <v>0.496571</v>
       </c>
       <c r="C34" t="n">
-        <v>0.432476</v>
+        <v>0.380539</v>
       </c>
       <c r="D34" t="n">
-        <v>0.39679</v>
+        <v>0.4012</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.498117</v>
+        <v>0.497655</v>
       </c>
       <c r="C35" t="n">
-        <v>0.430962</v>
+        <v>0.378215</v>
       </c>
       <c r="D35" t="n">
-        <v>0.400869</v>
+        <v>0.404054</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.495651</v>
+        <v>0.497326</v>
       </c>
       <c r="C36" t="n">
-        <v>0.430936</v>
+        <v>0.379081</v>
       </c>
       <c r="D36" t="n">
-        <v>0.399186</v>
+        <v>0.405885</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.497397</v>
+        <v>0.500094</v>
       </c>
       <c r="C37" t="n">
-        <v>0.431724</v>
+        <v>0.379333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.400523</v>
+        <v>0.404885</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.499032</v>
+        <v>0.498638</v>
       </c>
       <c r="C38" t="n">
-        <v>0.432489</v>
+        <v>0.380434</v>
       </c>
       <c r="D38" t="n">
-        <v>0.402974</v>
+        <v>0.406978</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.504956</v>
+        <v>0.501983</v>
       </c>
       <c r="C39" t="n">
-        <v>0.43364</v>
+        <v>0.381676</v>
       </c>
       <c r="D39" t="n">
-        <v>0.403286</v>
+        <v>0.406432</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.503512</v>
+        <v>0.502943</v>
       </c>
       <c r="C40" t="n">
-        <v>0.434959</v>
+        <v>0.381463</v>
       </c>
       <c r="D40" t="n">
-        <v>0.407228</v>
+        <v>0.407114</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.509494</v>
+        <v>0.507307</v>
       </c>
       <c r="C41" t="n">
-        <v>0.435938</v>
+        <v>0.383922</v>
       </c>
       <c r="D41" t="n">
-        <v>0.418761</v>
+        <v>0.411303</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5189780000000001</v>
+        <v>0.510734</v>
       </c>
       <c r="C42" t="n">
-        <v>0.439165</v>
+        <v>0.385304</v>
       </c>
       <c r="D42" t="n">
-        <v>0.420144</v>
+        <v>0.41595</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.528372</v>
+        <v>0.529249</v>
       </c>
       <c r="C43" t="n">
-        <v>0.443007</v>
+        <v>0.391405</v>
       </c>
       <c r="D43" t="n">
-        <v>0.433728</v>
+        <v>0.42842</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.547982</v>
+        <v>0.533525</v>
       </c>
       <c r="C44" t="n">
-        <v>0.449977</v>
+        <v>0.396555</v>
       </c>
       <c r="D44" t="n">
-        <v>0.439661</v>
+        <v>0.431462</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.562092</v>
+        <v>0.557055</v>
       </c>
       <c r="C45" t="n">
-        <v>0.461621</v>
+        <v>0.401915</v>
       </c>
       <c r="D45" t="n">
-        <v>0.460275</v>
+        <v>0.453921</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.578341</v>
+        <v>0.566823</v>
       </c>
       <c r="C46" t="n">
-        <v>0.466299</v>
+        <v>0.411658</v>
       </c>
       <c r="D46" t="n">
-        <v>0.469546</v>
+        <v>0.460695</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.600054</v>
+        <v>0.587867</v>
       </c>
       <c r="C47" t="n">
-        <v>0.478922</v>
+        <v>0.435702</v>
       </c>
       <c r="D47" t="n">
-        <v>0.48207</v>
+        <v>0.472262</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.617329</v>
+        <v>0.611193</v>
       </c>
       <c r="C48" t="n">
-        <v>0.505092</v>
+        <v>0.438984</v>
       </c>
       <c r="D48" t="n">
-        <v>0.500963</v>
+        <v>0.492174</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.642415</v>
+        <v>0.628834</v>
       </c>
       <c r="C49" t="n">
-        <v>0.514266</v>
+        <v>0.450889</v>
       </c>
       <c r="D49" t="n">
-        <v>0.516278</v>
+        <v>0.5127350000000001</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.673998</v>
+        <v>0.650373</v>
       </c>
       <c r="C50" t="n">
-        <v>0.542968</v>
+        <v>0.490134</v>
       </c>
       <c r="D50" t="n">
-        <v>0.606106</v>
+        <v>0.597579</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.699422</v>
+        <v>0.70423</v>
       </c>
       <c r="C51" t="n">
-        <v>0.561809</v>
+        <v>0.518455</v>
       </c>
       <c r="D51" t="n">
-        <v>0.613878</v>
+        <v>0.620201</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.739071</v>
+        <v>0.735528</v>
       </c>
       <c r="C52" t="n">
-        <v>0.597672</v>
+        <v>0.5419659999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.647294</v>
+        <v>0.647746</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.774208</v>
+        <v>0.772215</v>
       </c>
       <c r="C53" t="n">
-        <v>0.623203</v>
+        <v>0.58997</v>
       </c>
       <c r="D53" t="n">
-        <v>0.663853</v>
+        <v>0.668605</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.81057</v>
+        <v>0.809805</v>
       </c>
       <c r="C54" t="n">
-        <v>0.662672</v>
+        <v>0.640086</v>
       </c>
       <c r="D54" t="n">
-        <v>0.699068</v>
+        <v>0.7037330000000001</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.852197</v>
+        <v>0.862226</v>
       </c>
       <c r="C55" t="n">
-        <v>0.707345</v>
+        <v>0.693562</v>
       </c>
       <c r="D55" t="n">
-        <v>0.730066</v>
+        <v>0.743263</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.904787</v>
+        <v>0.9078079999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.748565</v>
+        <v>0.7351799999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.775471</v>
+        <v>0.7853520000000001</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.949608</v>
+        <v>0.961246</v>
       </c>
       <c r="C57" t="n">
-        <v>0.792876</v>
+        <v>0.780802</v>
       </c>
       <c r="D57" t="n">
-        <v>0.810889</v>
+        <v>0.828689</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.0012</v>
+        <v>1.02236</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8539</v>
+        <v>0.854498</v>
       </c>
       <c r="D58" t="n">
-        <v>0.85548</v>
+        <v>0.876184</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.05864</v>
+        <v>1.07769</v>
       </c>
       <c r="C59" t="n">
-        <v>0.895701</v>
+        <v>0.9112749999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.894604</v>
+        <v>0.915757</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.10794</v>
+        <v>1.13006</v>
       </c>
       <c r="C60" t="n">
-        <v>0.942746</v>
+        <v>0.961737</v>
       </c>
       <c r="D60" t="n">
-        <v>0.934622</v>
+        <v>0.946514</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.18852</v>
+        <v>1.20383</v>
       </c>
       <c r="C61" t="n">
-        <v>1.00897</v>
+        <v>1.01456</v>
       </c>
       <c r="D61" t="n">
-        <v>0.968675</v>
+        <v>0.976277</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.25349</v>
+        <v>1.26671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.06662</v>
+        <v>1.07355</v>
       </c>
       <c r="D62" t="n">
-        <v>1.00558</v>
+        <v>1.01238</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.31461</v>
+        <v>1.32435</v>
       </c>
       <c r="C63" t="n">
-        <v>1.12388</v>
+        <v>1.12313</v>
       </c>
       <c r="D63" t="n">
-        <v>1.03899</v>
+        <v>1.04724</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.3383</v>
+        <v>1.37723</v>
       </c>
       <c r="C64" t="n">
-        <v>1.2159</v>
+        <v>1.21654</v>
       </c>
       <c r="D64" t="n">
-        <v>1.1176</v>
+        <v>1.11923</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.38596</v>
+        <v>1.42606</v>
       </c>
       <c r="C65" t="n">
-        <v>1.26583</v>
+        <v>1.26071</v>
       </c>
       <c r="D65" t="n">
-        <v>1.14065</v>
+        <v>1.14749</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.43423</v>
+        <v>1.47409</v>
       </c>
       <c r="C66" t="n">
-        <v>1.31458</v>
+        <v>1.30799</v>
       </c>
       <c r="D66" t="n">
-        <v>1.17402</v>
+        <v>1.1827</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.51439</v>
+        <v>1.5223</v>
       </c>
       <c r="C67" t="n">
-        <v>1.3637</v>
+        <v>1.35412</v>
       </c>
       <c r="D67" t="n">
-        <v>1.19984</v>
+        <v>1.21189</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.55993</v>
+        <v>1.56701</v>
       </c>
       <c r="C68" t="n">
-        <v>1.40357</v>
+        <v>1.39244</v>
       </c>
       <c r="D68" t="n">
-        <v>1.22811</v>
+        <v>1.23716</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.60337</v>
+        <v>1.61221</v>
       </c>
       <c r="C69" t="n">
-        <v>1.44146</v>
+        <v>1.42737</v>
       </c>
       <c r="D69" t="n">
-        <v>1.25233</v>
+        <v>1.26535</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.64656</v>
+        <v>1.65254</v>
       </c>
       <c r="C70" t="n">
-        <v>1.47594</v>
+        <v>1.46114</v>
       </c>
       <c r="D70" t="n">
-        <v>1.27817</v>
+        <v>1.28712</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.68683</v>
+        <v>1.69303</v>
       </c>
       <c r="C71" t="n">
-        <v>1.50591</v>
+        <v>1.49285</v>
       </c>
       <c r="D71" t="n">
-        <v>1.30009</v>
+        <v>1.31118</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.72614</v>
+        <v>1.73226</v>
       </c>
       <c r="C72" t="n">
-        <v>1.53671</v>
+        <v>1.52264</v>
       </c>
       <c r="D72" t="n">
-        <v>1.32603</v>
+        <v>1.33592</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.76603</v>
+        <v>1.77115</v>
       </c>
       <c r="C73" t="n">
-        <v>1.56598</v>
+        <v>1.54886</v>
       </c>
       <c r="D73" t="n">
-        <v>1.34867</v>
+        <v>1.35694</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.80116</v>
+        <v>1.8042</v>
       </c>
       <c r="C74" t="n">
-        <v>1.59094</v>
+        <v>1.57287</v>
       </c>
       <c r="D74" t="n">
-        <v>1.37056</v>
+        <v>1.37798</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.83584</v>
+        <v>1.8423</v>
       </c>
       <c r="C75" t="n">
-        <v>1.61483</v>
+        <v>1.59919</v>
       </c>
       <c r="D75" t="n">
-        <v>1.39099</v>
+        <v>1.39687</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.88918</v>
+        <v>1.89204</v>
       </c>
       <c r="C76" t="n">
-        <v>1.63872</v>
+        <v>1.62227</v>
       </c>
       <c r="D76" t="n">
-        <v>1.41217</v>
+        <v>1.41076</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.92284</v>
+        <v>1.91871</v>
       </c>
       <c r="C77" t="n">
-        <v>1.66314</v>
+        <v>1.64396</v>
       </c>
       <c r="D77" t="n">
-        <v>1.43445</v>
+        <v>1.43175</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.9538</v>
+        <v>1.94815</v>
       </c>
       <c r="C78" t="n">
-        <v>1.70751</v>
+        <v>1.68971</v>
       </c>
       <c r="D78" t="n">
-        <v>1.49568</v>
+        <v>1.49178</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.97977</v>
+        <v>1.98007</v>
       </c>
       <c r="C79" t="n">
-        <v>1.72686</v>
+        <v>1.70751</v>
       </c>
       <c r="D79" t="n">
-        <v>1.51232</v>
+        <v>1.51779</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.00847</v>
+        <v>2.01203</v>
       </c>
       <c r="C80" t="n">
-        <v>1.74616</v>
+        <v>1.72479</v>
       </c>
       <c r="D80" t="n">
-        <v>1.5323</v>
+        <v>1.53635</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.03372</v>
+        <v>2.04066</v>
       </c>
       <c r="C81" t="n">
-        <v>1.76097</v>
+        <v>1.74592</v>
       </c>
       <c r="D81" t="n">
-        <v>1.55058</v>
+        <v>1.55715</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.06365</v>
+        <v>2.06886</v>
       </c>
       <c r="C82" t="n">
-        <v>1.78154</v>
+        <v>1.75715</v>
       </c>
       <c r="D82" t="n">
-        <v>1.56944</v>
+        <v>1.57695</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.08882</v>
+        <v>2.09528</v>
       </c>
       <c r="C83" t="n">
-        <v>1.78606</v>
+        <v>1.76958</v>
       </c>
       <c r="D83" t="n">
-        <v>1.58568</v>
+        <v>1.59167</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.11438</v>
+        <v>2.11938</v>
       </c>
       <c r="C84" t="n">
-        <v>1.81024</v>
+        <v>1.77941</v>
       </c>
       <c r="D84" t="n">
-        <v>1.601</v>
+        <v>1.60708</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.13549</v>
+        <v>2.14139</v>
       </c>
       <c r="C85" t="n">
-        <v>1.82633</v>
+        <v>1.80298</v>
       </c>
       <c r="D85" t="n">
-        <v>1.61592</v>
+        <v>1.62252</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.1596</v>
+        <v>2.16325</v>
       </c>
       <c r="C86" t="n">
-        <v>1.83821</v>
+        <v>1.80715</v>
       </c>
       <c r="D86" t="n">
-        <v>1.62868</v>
+        <v>1.63324</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.18512</v>
+        <v>2.18913</v>
       </c>
       <c r="C87" t="n">
-        <v>1.85882</v>
+        <v>1.82731</v>
       </c>
       <c r="D87" t="n">
-        <v>1.64508</v>
+        <v>1.64977</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.20644</v>
+        <v>2.21104</v>
       </c>
       <c r="C88" t="n">
-        <v>1.8678</v>
+        <v>1.83332</v>
       </c>
       <c r="D88" t="n">
-        <v>1.65878</v>
+        <v>1.66322</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.22822</v>
+        <v>2.23296</v>
       </c>
       <c r="C89" t="n">
-        <v>1.88617</v>
+        <v>1.84003</v>
       </c>
       <c r="D89" t="n">
-        <v>1.67273</v>
+        <v>1.67692</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.25276</v>
+        <v>2.24637</v>
       </c>
       <c r="C90" t="n">
-        <v>1.90065</v>
+        <v>1.8521</v>
       </c>
       <c r="D90" t="n">
-        <v>1.68635</v>
+        <v>1.69104</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.27032</v>
+        <v>2.26339</v>
       </c>
       <c r="C91" t="n">
-        <v>1.9117</v>
+        <v>1.85874</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70251</v>
+        <v>1.70292</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.29274</v>
+        <v>2.27986</v>
       </c>
       <c r="C92" t="n">
-        <v>1.86815</v>
+        <v>1.86769</v>
       </c>
       <c r="D92" t="n">
-        <v>1.74511</v>
+        <v>1.73714</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.31474</v>
+        <v>2.30314</v>
       </c>
       <c r="C93" t="n">
-        <v>1.87691</v>
+        <v>1.88736</v>
       </c>
       <c r="D93" t="n">
-        <v>1.76029</v>
+        <v>1.75333</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.33302</v>
+        <v>2.32122</v>
       </c>
       <c r="C94" t="n">
-        <v>1.88944</v>
+        <v>1.87055</v>
       </c>
       <c r="D94" t="n">
-        <v>1.77164</v>
+        <v>1.76363</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.3484</v>
+        <v>2.33909</v>
       </c>
       <c r="C95" t="n">
-        <v>1.91643</v>
+        <v>1.91282</v>
       </c>
       <c r="D95" t="n">
-        <v>1.78411</v>
+        <v>1.77621</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.36471</v>
+        <v>2.35625</v>
       </c>
       <c r="C96" t="n">
-        <v>1.92267</v>
+        <v>1.90753</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79401</v>
+        <v>1.79582</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.37922</v>
+        <v>2.38878</v>
       </c>
       <c r="C97" t="n">
-        <v>1.92743</v>
+        <v>1.91184</v>
       </c>
       <c r="D97" t="n">
-        <v>1.79881</v>
+        <v>1.80634</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.39724</v>
+        <v>2.40449</v>
       </c>
       <c r="C98" t="n">
-        <v>1.9463</v>
+        <v>1.92368</v>
       </c>
       <c r="D98" t="n">
-        <v>1.81509</v>
+        <v>1.81553</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.4125</v>
+        <v>2.42015</v>
       </c>
       <c r="C99" t="n">
-        <v>1.95083</v>
+        <v>1.94534</v>
       </c>
       <c r="D99" t="n">
-        <v>1.82387</v>
+        <v>1.82671</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.42472</v>
+        <v>2.43287</v>
       </c>
       <c r="C100" t="n">
-        <v>1.96221</v>
+        <v>1.93371</v>
       </c>
       <c r="D100" t="n">
-        <v>1.83268</v>
+        <v>1.8355</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.43783</v>
+        <v>2.44583</v>
       </c>
       <c r="C101" t="n">
-        <v>1.95138</v>
+        <v>1.9395</v>
       </c>
       <c r="D101" t="n">
-        <v>1.84234</v>
+        <v>1.84394</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.45478</v>
+        <v>2.46105</v>
       </c>
       <c r="C102" t="n">
-        <v>1.99382</v>
+        <v>1.94317</v>
       </c>
       <c r="D102" t="n">
-        <v>1.85179</v>
+        <v>1.85191</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.4667</v>
+        <v>2.47483</v>
       </c>
       <c r="C103" t="n">
-        <v>1.9884</v>
+        <v>1.95307</v>
       </c>
       <c r="D103" t="n">
-        <v>1.86122</v>
+        <v>1.86195</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.48493</v>
+        <v>2.46871</v>
       </c>
       <c r="C104" t="n">
-        <v>2.01301</v>
+        <v>1.95543</v>
       </c>
       <c r="D104" t="n">
-        <v>1.87184</v>
+        <v>1.86238</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.48284</v>
+        <v>2.46441</v>
       </c>
       <c r="C105" t="n">
-        <v>2.014</v>
+        <v>1.94385</v>
       </c>
       <c r="D105" t="n">
-        <v>1.88083</v>
+        <v>1.87236</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.49577</v>
+        <v>2.47701</v>
       </c>
       <c r="C106" t="n">
-        <v>1.99701</v>
+        <v>1.95844</v>
       </c>
       <c r="D106" t="n">
-        <v>1.89004</v>
+        <v>1.88119</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.50746</v>
+        <v>2.48685</v>
       </c>
       <c r="C107" t="n">
-        <v>1.99041</v>
+        <v>1.94282</v>
       </c>
       <c r="D107" t="n">
-        <v>1.9104</v>
+        <v>1.89888</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.51899</v>
+        <v>2.50174</v>
       </c>
       <c r="C108" t="n">
-        <v>2.0093</v>
+        <v>1.96313</v>
       </c>
       <c r="D108" t="n">
-        <v>1.92283</v>
+        <v>1.9113</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.53076</v>
+        <v>2.51367</v>
       </c>
       <c r="C109" t="n">
-        <v>1.99863</v>
+        <v>1.95968</v>
       </c>
       <c r="D109" t="n">
-        <v>1.93042</v>
+        <v>1.91888</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.54123</v>
+        <v>2.52136</v>
       </c>
       <c r="C110" t="n">
-        <v>2.01823</v>
+        <v>1.98234</v>
       </c>
       <c r="D110" t="n">
-        <v>1.93855</v>
+        <v>1.92724</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.55044</v>
+        <v>2.53137</v>
       </c>
       <c r="C111" t="n">
-        <v>2.02501</v>
+        <v>1.97974</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94481</v>
+        <v>1.93074</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.55932</v>
+        <v>2.5594</v>
       </c>
       <c r="C112" t="n">
-        <v>2.02543</v>
+        <v>1.97891</v>
       </c>
       <c r="D112" t="n">
-        <v>1.95243</v>
+        <v>1.94644</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.56942</v>
+        <v>2.55256</v>
       </c>
       <c r="C113" t="n">
-        <v>2.02567</v>
+        <v>1.98905</v>
       </c>
       <c r="D113" t="n">
-        <v>1.96009</v>
+        <v>1.95044</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.57786</v>
+        <v>2.56369</v>
       </c>
       <c r="C114" t="n">
-        <v>2.03591</v>
+        <v>1.99118</v>
       </c>
       <c r="D114" t="n">
-        <v>1.96484</v>
+        <v>1.95687</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.58969</v>
+        <v>2.57716</v>
       </c>
       <c r="C115" t="n">
-        <v>2.03775</v>
+        <v>1.99163</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97052</v>
+        <v>1.96471</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.5993</v>
+        <v>2.58939</v>
       </c>
       <c r="C116" t="n">
-        <v>2.06076</v>
+        <v>2.01508</v>
       </c>
       <c r="D116" t="n">
-        <v>1.97649</v>
+        <v>1.96835</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.60914</v>
+        <v>2.59959</v>
       </c>
       <c r="C117" t="n">
-        <v>2.05203</v>
+        <v>2.02482</v>
       </c>
       <c r="D117" t="n">
-        <v>1.98426</v>
+        <v>1.97967</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.62101</v>
+        <v>2.61125</v>
       </c>
       <c r="C118" t="n">
-        <v>2.06862</v>
+        <v>2.0209</v>
       </c>
       <c r="D118" t="n">
-        <v>1.98989</v>
+        <v>1.98823</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.60397</v>
+        <v>2.60326</v>
       </c>
       <c r="C119" t="n">
-        <v>2.06481</v>
+        <v>2.02625</v>
       </c>
       <c r="D119" t="n">
-        <v>1.99706</v>
+        <v>1.9945</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.449868</v>
+        <v>0.450743</v>
       </c>
       <c r="C2" t="n">
-        <v>0.403237</v>
+        <v>0.347085</v>
       </c>
       <c r="D2" t="n">
-        <v>0.353718</v>
+        <v>0.358384</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4541</v>
+        <v>0.455092</v>
       </c>
       <c r="C3" t="n">
-        <v>0.409835</v>
+        <v>0.35348</v>
       </c>
       <c r="D3" t="n">
-        <v>0.357189</v>
+        <v>0.362028</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456583</v>
+        <v>0.457002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.412241</v>
+        <v>0.358231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35984</v>
+        <v>0.364637</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.45953</v>
+        <v>0.4613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.415484</v>
+        <v>0.36064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3618</v>
+        <v>0.366597</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.466169</v>
+        <v>0.467766</v>
       </c>
       <c r="C6" t="n">
-        <v>0.415858</v>
+        <v>0.360998</v>
       </c>
       <c r="D6" t="n">
-        <v>0.364556</v>
+        <v>0.368368</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.469457</v>
+        <v>0.471232</v>
       </c>
       <c r="C7" t="n">
-        <v>0.41984</v>
+        <v>0.367821</v>
       </c>
       <c r="D7" t="n">
-        <v>0.366628</v>
+        <v>0.371206</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.472687</v>
+        <v>0.474542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.425079</v>
+        <v>0.370925</v>
       </c>
       <c r="D8" t="n">
-        <v>0.370915</v>
+        <v>0.375492</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.476553</v>
+        <v>0.477272</v>
       </c>
       <c r="C9" t="n">
-        <v>0.428593</v>
+        <v>0.373131</v>
       </c>
       <c r="D9" t="n">
-        <v>0.371997</v>
+        <v>0.37638</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.481023</v>
+        <v>0.482413</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43184</v>
+        <v>0.377273</v>
       </c>
       <c r="D10" t="n">
-        <v>0.375081</v>
+        <v>0.379548</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.48724</v>
+        <v>0.48806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.417463</v>
+        <v>0.36369</v>
       </c>
       <c r="D11" t="n">
-        <v>0.370158</v>
+        <v>0.375604</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.475691</v>
+        <v>0.476686</v>
       </c>
       <c r="C12" t="n">
-        <v>0.423208</v>
+        <v>0.371227</v>
       </c>
       <c r="D12" t="n">
-        <v>0.373348</v>
+        <v>0.37793</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.479101</v>
+        <v>0.479594</v>
       </c>
       <c r="C13" t="n">
-        <v>0.427757</v>
+        <v>0.37138</v>
       </c>
       <c r="D13" t="n">
-        <v>0.375829</v>
+        <v>0.379979</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.482365</v>
+        <v>0.483693</v>
       </c>
       <c r="C14" t="n">
-        <v>0.428717</v>
+        <v>0.374582</v>
       </c>
       <c r="D14" t="n">
-        <v>0.377656</v>
+        <v>0.38169</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.485112</v>
+        <v>0.486844</v>
       </c>
       <c r="C15" t="n">
-        <v>0.431753</v>
+        <v>0.376593</v>
       </c>
       <c r="D15" t="n">
-        <v>0.378881</v>
+        <v>0.382695</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.489909</v>
+        <v>0.490655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.433866</v>
+        <v>0.380554</v>
       </c>
       <c r="D16" t="n">
-        <v>0.380232</v>
+        <v>0.383922</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.492791</v>
+        <v>0.493561</v>
       </c>
       <c r="C17" t="n">
-        <v>0.436007</v>
+        <v>0.383483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.38224</v>
+        <v>0.38563</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.496025</v>
+        <v>0.496868</v>
       </c>
       <c r="C18" t="n">
-        <v>0.439317</v>
+        <v>0.383911</v>
       </c>
       <c r="D18" t="n">
-        <v>0.384071</v>
+        <v>0.388001</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.497715</v>
+        <v>0.497565</v>
       </c>
       <c r="C19" t="n">
-        <v>0.439478</v>
+        <v>0.386967</v>
       </c>
       <c r="D19" t="n">
-        <v>0.386123</v>
+        <v>0.390094</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.502324</v>
+        <v>0.502854</v>
       </c>
       <c r="C20" t="n">
-        <v>0.445275</v>
+        <v>0.388359</v>
       </c>
       <c r="D20" t="n">
-        <v>0.38799</v>
+        <v>0.391916</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.503246</v>
+        <v>0.505244</v>
       </c>
       <c r="C21" t="n">
-        <v>0.448332</v>
+        <v>0.392211</v>
       </c>
       <c r="D21" t="n">
-        <v>0.390299</v>
+        <v>0.394394</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.507843</v>
+        <v>0.507896</v>
       </c>
       <c r="C22" t="n">
-        <v>0.450004</v>
+        <v>0.393671</v>
       </c>
       <c r="D22" t="n">
-        <v>0.390926</v>
+        <v>0.394488</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.510539</v>
+        <v>0.508649</v>
       </c>
       <c r="C23" t="n">
-        <v>0.453005</v>
+        <v>0.397594</v>
       </c>
       <c r="D23" t="n">
-        <v>0.392391</v>
+        <v>0.39575</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.51363</v>
+        <v>0.514683</v>
       </c>
       <c r="C24" t="n">
-        <v>0.45566</v>
+        <v>0.399038</v>
       </c>
       <c r="D24" t="n">
-        <v>0.394833</v>
+        <v>0.398107</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.515417</v>
+        <v>0.517391</v>
       </c>
       <c r="C25" t="n">
-        <v>0.457077</v>
+        <v>0.403211</v>
       </c>
       <c r="D25" t="n">
-        <v>0.396639</v>
+        <v>0.399793</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.520813</v>
+        <v>0.519748</v>
       </c>
       <c r="C26" t="n">
-        <v>0.43835</v>
+        <v>0.384426</v>
       </c>
       <c r="D26" t="n">
-        <v>0.393617</v>
+        <v>0.396766</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.503816</v>
+        <v>0.504748</v>
       </c>
       <c r="C27" t="n">
-        <v>0.441085</v>
+        <v>0.38707</v>
       </c>
       <c r="D27" t="n">
-        <v>0.395804</v>
+        <v>0.399625</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.506857</v>
+        <v>0.505953</v>
       </c>
       <c r="C28" t="n">
-        <v>0.442919</v>
+        <v>0.3891</v>
       </c>
       <c r="D28" t="n">
-        <v>0.397657</v>
+        <v>0.401209</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5091830000000001</v>
+        <v>0.509175</v>
       </c>
       <c r="C29" t="n">
-        <v>0.44553</v>
+        <v>0.388924</v>
       </c>
       <c r="D29" t="n">
-        <v>0.398736</v>
+        <v>0.40301</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.510351</v>
+        <v>0.512053</v>
       </c>
       <c r="C30" t="n">
-        <v>0.446624</v>
+        <v>0.391364</v>
       </c>
       <c r="D30" t="n">
-        <v>0.399312</v>
+        <v>0.403943</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.514611</v>
+        <v>0.514306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.449643</v>
+        <v>0.393027</v>
       </c>
       <c r="D31" t="n">
-        <v>0.401372</v>
+        <v>0.405384</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.516388</v>
+        <v>0.516709</v>
       </c>
       <c r="C32" t="n">
-        <v>0.451551</v>
+        <v>0.395704</v>
       </c>
       <c r="D32" t="n">
-        <v>0.401577</v>
+        <v>0.406586</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518743</v>
+        <v>0.518966</v>
       </c>
       <c r="C33" t="n">
-        <v>0.453627</v>
+        <v>0.397761</v>
       </c>
       <c r="D33" t="n">
-        <v>0.403709</v>
+        <v>0.408084</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.521272</v>
+        <v>0.521173</v>
       </c>
       <c r="C34" t="n">
-        <v>0.455937</v>
+        <v>0.401031</v>
       </c>
       <c r="D34" t="n">
-        <v>0.405036</v>
+        <v>0.408865</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.523218</v>
+        <v>0.523684</v>
       </c>
       <c r="C35" t="n">
-        <v>0.45842</v>
+        <v>0.402523</v>
       </c>
       <c r="D35" t="n">
-        <v>0.407215</v>
+        <v>0.41111</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.525679</v>
+        <v>0.525711</v>
       </c>
       <c r="C36" t="n">
-        <v>0.460785</v>
+        <v>0.405603</v>
       </c>
       <c r="D36" t="n">
-        <v>0.409263</v>
+        <v>0.413079</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.528639</v>
+        <v>0.528271</v>
       </c>
       <c r="C37" t="n">
-        <v>0.463762</v>
+        <v>0.408316</v>
       </c>
       <c r="D37" t="n">
-        <v>0.410663</v>
+        <v>0.414947</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.533191</v>
+        <v>0.531602</v>
       </c>
       <c r="C38" t="n">
-        <v>0.466917</v>
+        <v>0.410751</v>
       </c>
       <c r="D38" t="n">
-        <v>0.412939</v>
+        <v>0.416737</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5358579999999999</v>
+        <v>0.533447</v>
       </c>
       <c r="C39" t="n">
-        <v>0.470682</v>
+        <v>0.412552</v>
       </c>
       <c r="D39" t="n">
-        <v>0.413921</v>
+        <v>0.417335</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.543902</v>
+        <v>0.536814</v>
       </c>
       <c r="C40" t="n">
-        <v>0.451592</v>
+        <v>0.394577</v>
       </c>
       <c r="D40" t="n">
-        <v>0.412189</v>
+        <v>0.41125</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.528207</v>
+        <v>0.52049</v>
       </c>
       <c r="C41" t="n">
-        <v>0.453421</v>
+        <v>0.396726</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413832</v>
+        <v>0.413692</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.531485</v>
+        <v>0.527523</v>
       </c>
       <c r="C42" t="n">
-        <v>0.456611</v>
+        <v>0.399247</v>
       </c>
       <c r="D42" t="n">
-        <v>0.41939</v>
+        <v>0.418863</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.533292</v>
+        <v>0.543056</v>
       </c>
       <c r="C43" t="n">
-        <v>0.459196</v>
+        <v>0.401812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.418812</v>
+        <v>0.429687</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.537158</v>
+        <v>0.5523979999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>0.464229</v>
+        <v>0.404732</v>
       </c>
       <c r="D44" t="n">
-        <v>0.424696</v>
+        <v>0.440399</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.55498</v>
+        <v>0.561524</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4698</v>
+        <v>0.417607</v>
       </c>
       <c r="D45" t="n">
-        <v>0.439386</v>
+        <v>0.444897</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5700539999999999</v>
+        <v>0.5704360000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>0.480751</v>
+        <v>0.419509</v>
       </c>
       <c r="D46" t="n">
-        <v>0.449222</v>
+        <v>0.450729</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.579597</v>
+        <v>0.585471</v>
       </c>
       <c r="C47" t="n">
-        <v>0.492142</v>
+        <v>0.432501</v>
       </c>
       <c r="D47" t="n">
-        <v>0.457065</v>
+        <v>0.464032</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.596433</v>
+        <v>0.599766</v>
       </c>
       <c r="C48" t="n">
-        <v>0.493633</v>
+        <v>0.435225</v>
       </c>
       <c r="D48" t="n">
-        <v>0.469513</v>
+        <v>0.476193</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.620617</v>
+        <v>0.623406</v>
       </c>
       <c r="C49" t="n">
-        <v>0.499437</v>
+        <v>0.454538</v>
       </c>
       <c r="D49" t="n">
-        <v>0.492142</v>
+        <v>0.496408</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.643398</v>
+        <v>0.647405</v>
       </c>
       <c r="C50" t="n">
-        <v>0.515693</v>
+        <v>0.471065</v>
       </c>
       <c r="D50" t="n">
-        <v>0.517217</v>
+        <v>0.524142</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.681213</v>
+        <v>0.681501</v>
       </c>
       <c r="C51" t="n">
-        <v>0.550769</v>
+        <v>0.487226</v>
       </c>
       <c r="D51" t="n">
-        <v>0.553835</v>
+        <v>0.555522</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.699875</v>
+        <v>0.705214</v>
       </c>
       <c r="C52" t="n">
-        <v>0.555268</v>
+        <v>0.520791</v>
       </c>
       <c r="D52" t="n">
-        <v>0.57133</v>
+        <v>0.573126</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.739294</v>
+        <v>0.733544</v>
       </c>
       <c r="C53" t="n">
-        <v>0.590206</v>
+        <v>0.543405</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6044389999999999</v>
+        <v>0.603556</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.778992</v>
+        <v>0.761525</v>
       </c>
       <c r="C54" t="n">
-        <v>0.587513</v>
+        <v>0.527497</v>
       </c>
       <c r="D54" t="n">
-        <v>0.647959</v>
+        <v>0.630258</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.830533</v>
+        <v>0.807246</v>
       </c>
       <c r="C55" t="n">
-        <v>0.628746</v>
+        <v>0.588328</v>
       </c>
       <c r="D55" t="n">
-        <v>0.68368</v>
+        <v>0.668556</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.841442</v>
+        <v>0.840938</v>
       </c>
       <c r="C56" t="n">
-        <v>0.66413</v>
+        <v>0.630937</v>
       </c>
       <c r="D56" t="n">
-        <v>0.718243</v>
+        <v>0.713233</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.906996</v>
+        <v>0.889046</v>
       </c>
       <c r="C57" t="n">
-        <v>0.71148</v>
+        <v>0.655705</v>
       </c>
       <c r="D57" t="n">
-        <v>0.765566</v>
+        <v>0.751624</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.967647</v>
+        <v>0.947662</v>
       </c>
       <c r="C58" t="n">
-        <v>0.778173</v>
+        <v>0.718769</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8105520000000001</v>
+        <v>0.795168</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.02672</v>
+        <v>1.002</v>
       </c>
       <c r="C59" t="n">
-        <v>0.831572</v>
+        <v>0.77588</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8480839999999999</v>
+        <v>0.833441</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.08878</v>
+        <v>1.05999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.899851</v>
+        <v>0.837412</v>
       </c>
       <c r="D60" t="n">
-        <v>0.89007</v>
+        <v>0.876959</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.14809</v>
+        <v>1.1119</v>
       </c>
       <c r="C61" t="n">
-        <v>0.950522</v>
+        <v>0.892503</v>
       </c>
       <c r="D61" t="n">
-        <v>0.926666</v>
+        <v>0.912093</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.20818</v>
+        <v>1.17701</v>
       </c>
       <c r="C62" t="n">
-        <v>1.00701</v>
+        <v>0.95769</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9638949999999999</v>
+        <v>0.951398</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.26986</v>
+        <v>1.23426</v>
       </c>
       <c r="C63" t="n">
-        <v>1.06917</v>
+        <v>1.01327</v>
       </c>
       <c r="D63" t="n">
-        <v>1.00209</v>
+        <v>0.983627</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.32544</v>
+        <v>1.29163</v>
       </c>
       <c r="C64" t="n">
-        <v>1.11845</v>
+        <v>1.06088</v>
       </c>
       <c r="D64" t="n">
-        <v>1.03463</v>
+        <v>1.0162</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.38728</v>
+        <v>1.35038</v>
       </c>
       <c r="C65" t="n">
-        <v>1.18279</v>
+        <v>1.12396</v>
       </c>
       <c r="D65" t="n">
-        <v>1.06748</v>
+        <v>1.04695</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.4384</v>
+        <v>1.39893</v>
       </c>
       <c r="C66" t="n">
-        <v>1.23522</v>
+        <v>1.1689</v>
       </c>
       <c r="D66" t="n">
-        <v>1.09684</v>
+        <v>1.06956</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.49739</v>
+        <v>1.44705</v>
       </c>
       <c r="C67" t="n">
-        <v>1.29242</v>
+        <v>1.20312</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12864</v>
+        <v>1.09871</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.55207</v>
+        <v>1.50266</v>
       </c>
       <c r="C68" t="n">
-        <v>1.30924</v>
+        <v>1.23069</v>
       </c>
       <c r="D68" t="n">
-        <v>1.16145</v>
+        <v>1.132</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.60899</v>
+        <v>1.56211</v>
       </c>
       <c r="C69" t="n">
-        <v>1.35917</v>
+        <v>1.29246</v>
       </c>
       <c r="D69" t="n">
-        <v>1.18807</v>
+        <v>1.15974</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.61845</v>
+        <v>1.58904</v>
       </c>
       <c r="C70" t="n">
-        <v>1.40842</v>
+        <v>1.33411</v>
       </c>
       <c r="D70" t="n">
-        <v>1.21548</v>
+        <v>1.19343</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.67148</v>
+        <v>1.63476</v>
       </c>
       <c r="C71" t="n">
-        <v>1.45431</v>
+        <v>1.3754</v>
       </c>
       <c r="D71" t="n">
-        <v>1.24501</v>
+        <v>1.22341</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.7191</v>
+        <v>1.68379</v>
       </c>
       <c r="C72" t="n">
-        <v>1.49735</v>
+        <v>1.41861</v>
       </c>
       <c r="D72" t="n">
-        <v>1.26937</v>
+        <v>1.24995</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.76214</v>
+        <v>1.72457</v>
       </c>
       <c r="C73" t="n">
-        <v>1.53672</v>
+        <v>1.45335</v>
       </c>
       <c r="D73" t="n">
-        <v>1.29422</v>
+        <v>1.27083</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.81007</v>
+        <v>1.77527</v>
       </c>
       <c r="C74" t="n">
-        <v>1.57382</v>
+        <v>1.48713</v>
       </c>
       <c r="D74" t="n">
-        <v>1.32302</v>
+        <v>1.30241</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.8529</v>
+        <v>1.81229</v>
       </c>
       <c r="C75" t="n">
-        <v>1.61444</v>
+        <v>1.52238</v>
       </c>
       <c r="D75" t="n">
-        <v>1.34932</v>
+        <v>1.32183</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.8954</v>
+        <v>1.85189</v>
       </c>
       <c r="C76" t="n">
-        <v>1.64953</v>
+        <v>1.55449</v>
       </c>
       <c r="D76" t="n">
-        <v>1.37306</v>
+        <v>1.34635</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.93538</v>
+        <v>1.9007</v>
       </c>
       <c r="C77" t="n">
-        <v>1.68486</v>
+        <v>1.59592</v>
       </c>
       <c r="D77" t="n">
-        <v>1.39835</v>
+        <v>1.37933</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.97655</v>
+        <v>1.95428</v>
       </c>
       <c r="C78" t="n">
-        <v>1.72067</v>
+        <v>1.62228</v>
       </c>
       <c r="D78" t="n">
-        <v>1.42365</v>
+        <v>1.40469</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.0179</v>
+        <v>2.00183</v>
       </c>
       <c r="C79" t="n">
-        <v>1.7507</v>
+        <v>1.6668</v>
       </c>
       <c r="D79" t="n">
-        <v>1.44827</v>
+        <v>1.43542</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.05616</v>
+        <v>2.03962</v>
       </c>
       <c r="C80" t="n">
-        <v>1.78757</v>
+        <v>1.68671</v>
       </c>
       <c r="D80" t="n">
-        <v>1.4718</v>
+        <v>1.45619</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.09531</v>
+        <v>2.08009</v>
       </c>
       <c r="C81" t="n">
-        <v>1.82295</v>
+        <v>1.72574</v>
       </c>
       <c r="D81" t="n">
-        <v>1.4944</v>
+        <v>1.48492</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.13381</v>
+        <v>2.11616</v>
       </c>
       <c r="C82" t="n">
-        <v>1.85535</v>
+        <v>1.75128</v>
       </c>
       <c r="D82" t="n">
-        <v>1.51836</v>
+        <v>1.5027</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.17274</v>
+        <v>2.15851</v>
       </c>
       <c r="C83" t="n">
-        <v>1.81233</v>
+        <v>1.7297</v>
       </c>
       <c r="D83" t="n">
-        <v>1.5286</v>
+        <v>1.51683</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.21112</v>
+        <v>2.19998</v>
       </c>
       <c r="C84" t="n">
-        <v>1.83521</v>
+        <v>1.75692</v>
       </c>
       <c r="D84" t="n">
-        <v>1.5484</v>
+        <v>1.53943</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.17704</v>
+        <v>2.16782</v>
       </c>
       <c r="C85" t="n">
-        <v>1.86387</v>
+        <v>1.77951</v>
       </c>
       <c r="D85" t="n">
-        <v>1.56718</v>
+        <v>1.55148</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.20433</v>
+        <v>2.19679</v>
       </c>
       <c r="C86" t="n">
-        <v>1.88117</v>
+        <v>1.80088</v>
       </c>
       <c r="D86" t="n">
-        <v>1.58282</v>
+        <v>1.57671</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.23764</v>
+        <v>2.22903</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90907</v>
+        <v>1.82216</v>
       </c>
       <c r="D87" t="n">
-        <v>1.60361</v>
+        <v>1.59378</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.26615</v>
+        <v>2.25179</v>
       </c>
       <c r="C88" t="n">
-        <v>1.92476</v>
+        <v>1.84546</v>
       </c>
       <c r="D88" t="n">
-        <v>1.62172</v>
+        <v>1.61086</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.29569</v>
+        <v>2.28285</v>
       </c>
       <c r="C89" t="n">
-        <v>1.95968</v>
+        <v>1.86401</v>
       </c>
       <c r="D89" t="n">
-        <v>1.64056</v>
+        <v>1.62702</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.32391</v>
+        <v>2.31046</v>
       </c>
       <c r="C90" t="n">
-        <v>1.98279</v>
+        <v>1.87931</v>
       </c>
       <c r="D90" t="n">
-        <v>1.65899</v>
+        <v>1.64593</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.3525</v>
+        <v>2.34093</v>
       </c>
       <c r="C91" t="n">
-        <v>1.99878</v>
+        <v>1.90619</v>
       </c>
       <c r="D91" t="n">
-        <v>1.67657</v>
+        <v>1.66625</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.38121</v>
+        <v>2.371</v>
       </c>
       <c r="C92" t="n">
-        <v>2.01695</v>
+        <v>1.93323</v>
       </c>
       <c r="D92" t="n">
-        <v>1.69654</v>
+        <v>1.68668</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.41167</v>
+        <v>2.39707</v>
       </c>
       <c r="C93" t="n">
-        <v>2.05503</v>
+        <v>1.95053</v>
       </c>
       <c r="D93" t="n">
-        <v>1.71585</v>
+        <v>1.70067</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.44025</v>
+        <v>2.42992</v>
       </c>
       <c r="C94" t="n">
-        <v>2.07178</v>
+        <v>1.9683</v>
       </c>
       <c r="D94" t="n">
-        <v>1.73147</v>
+        <v>1.71637</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.47328</v>
+        <v>2.45663</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09405</v>
+        <v>2.00303</v>
       </c>
       <c r="D95" t="n">
-        <v>1.75188</v>
+        <v>1.73439</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.5038</v>
+        <v>2.48492</v>
       </c>
       <c r="C96" t="n">
-        <v>2.1324</v>
+        <v>2.02028</v>
       </c>
       <c r="D96" t="n">
-        <v>1.76983</v>
+        <v>1.75294</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.53787</v>
+        <v>2.51832</v>
       </c>
       <c r="C97" t="n">
-        <v>2.02198</v>
+        <v>1.94195</v>
       </c>
       <c r="D97" t="n">
-        <v>1.7725</v>
+        <v>1.75434</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.56588</v>
+        <v>2.54955</v>
       </c>
       <c r="C98" t="n">
-        <v>2.04442</v>
+        <v>1.97328</v>
       </c>
       <c r="D98" t="n">
-        <v>1.78926</v>
+        <v>1.77363</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.48913</v>
+        <v>2.47646</v>
       </c>
       <c r="C99" t="n">
-        <v>2.07668</v>
+        <v>1.99411</v>
       </c>
       <c r="D99" t="n">
-        <v>1.80246</v>
+        <v>1.79038</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.51275</v>
+        <v>2.49138</v>
       </c>
       <c r="C100" t="n">
-        <v>2.0878</v>
+        <v>2.00282</v>
       </c>
       <c r="D100" t="n">
-        <v>1.81702</v>
+        <v>1.79554</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.5329</v>
+        <v>2.51691</v>
       </c>
       <c r="C101" t="n">
-        <v>2.10346</v>
+        <v>2.03049</v>
       </c>
       <c r="D101" t="n">
-        <v>1.83298</v>
+        <v>1.81615</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.55579</v>
+        <v>2.54249</v>
       </c>
       <c r="C102" t="n">
-        <v>2.10514</v>
+        <v>2.04185</v>
       </c>
       <c r="D102" t="n">
-        <v>1.84725</v>
+        <v>1.83452</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.57546</v>
+        <v>2.56204</v>
       </c>
       <c r="C103" t="n">
-        <v>2.13491</v>
+        <v>2.05365</v>
       </c>
       <c r="D103" t="n">
-        <v>1.86056</v>
+        <v>1.84904</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.59836</v>
+        <v>2.58519</v>
       </c>
       <c r="C104" t="n">
-        <v>2.16127</v>
+        <v>2.05147</v>
       </c>
       <c r="D104" t="n">
-        <v>1.87501</v>
+        <v>1.86139</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.6199</v>
+        <v>2.60961</v>
       </c>
       <c r="C105" t="n">
-        <v>2.15941</v>
+        <v>2.09672</v>
       </c>
       <c r="D105" t="n">
-        <v>1.88933</v>
+        <v>1.8807</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.6452</v>
+        <v>2.63256</v>
       </c>
       <c r="C106" t="n">
-        <v>2.16912</v>
+        <v>2.11281</v>
       </c>
       <c r="D106" t="n">
-        <v>1.90587</v>
+        <v>1.89545</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.6666</v>
+        <v>2.65724</v>
       </c>
       <c r="C107" t="n">
-        <v>2.19533</v>
+        <v>2.12552</v>
       </c>
       <c r="D107" t="n">
-        <v>1.91729</v>
+        <v>1.90847</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68842</v>
+        <v>2.68178</v>
       </c>
       <c r="C108" t="n">
-        <v>2.221</v>
+        <v>2.15896</v>
       </c>
       <c r="D108" t="n">
-        <v>1.93389</v>
+        <v>1.9257</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.71067</v>
+        <v>2.70601</v>
       </c>
       <c r="C109" t="n">
-        <v>2.24112</v>
+        <v>2.15681</v>
       </c>
       <c r="D109" t="n">
-        <v>1.95011</v>
+        <v>1.94044</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.73437</v>
+        <v>2.72371</v>
       </c>
       <c r="C110" t="n">
-        <v>2.25757</v>
+        <v>2.19251</v>
       </c>
       <c r="D110" t="n">
-        <v>1.96381</v>
+        <v>1.95017</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.75766</v>
+        <v>2.75363</v>
       </c>
       <c r="C111" t="n">
-        <v>2.12399</v>
+        <v>2.07864</v>
       </c>
       <c r="D111" t="n">
-        <v>1.95059</v>
+        <v>1.94098</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.78016</v>
+        <v>2.77589</v>
       </c>
       <c r="C112" t="n">
-        <v>2.16628</v>
+        <v>2.10314</v>
       </c>
       <c r="D112" t="n">
-        <v>1.95745</v>
+        <v>1.9559</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.80367</v>
+        <v>2.80071</v>
       </c>
       <c r="C113" t="n">
-        <v>2.19247</v>
+        <v>2.11078</v>
       </c>
       <c r="D113" t="n">
-        <v>1.97159</v>
+        <v>1.96777</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.68827</v>
+        <v>2.68463</v>
       </c>
       <c r="C114" t="n">
-        <v>2.20443</v>
+        <v>2.11455</v>
       </c>
       <c r="D114" t="n">
-        <v>1.98261</v>
+        <v>1.97796</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.70434</v>
+        <v>2.70446</v>
       </c>
       <c r="C115" t="n">
-        <v>2.23489</v>
+        <v>2.12348</v>
       </c>
       <c r="D115" t="n">
-        <v>1.99257</v>
+        <v>1.99018</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.72127</v>
+        <v>2.72619</v>
       </c>
       <c r="C116" t="n">
-        <v>2.22997</v>
+        <v>2.15387</v>
       </c>
       <c r="D116" t="n">
-        <v>2.00176</v>
+        <v>2.00383</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.73771</v>
+        <v>2.74369</v>
       </c>
       <c r="C117" t="n">
-        <v>2.22665</v>
+        <v>2.15159</v>
       </c>
       <c r="D117" t="n">
-        <v>2.01589</v>
+        <v>2.01655</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.75358</v>
+        <v>2.76147</v>
       </c>
       <c r="C118" t="n">
-        <v>2.26579</v>
+        <v>2.18195</v>
       </c>
       <c r="D118" t="n">
-        <v>2.02415</v>
+        <v>2.02829</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.76854</v>
+        <v>2.78261</v>
       </c>
       <c r="C119" t="n">
-        <v>2.27701</v>
+        <v>2.20189</v>
       </c>
       <c r="D119" t="n">
-        <v>2.03584</v>
+        <v>2.04284</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure by key.xlsx
+++ b/gcc/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.439064</v>
+        <v>0.439135</v>
       </c>
       <c r="C2" t="n">
-        <v>0.340351</v>
+        <v>0.338287</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35506</v>
+        <v>0.355194</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.441262</v>
+        <v>0.440179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.343936</v>
+        <v>0.340926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.365307</v>
+        <v>0.357024</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444638</v>
+        <v>0.444175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.347047</v>
+        <v>0.343887</v>
       </c>
       <c r="D4" t="n">
-        <v>0.360288</v>
+        <v>0.358997</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.448514</v>
+        <v>0.449107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.348737</v>
+        <v>0.346073</v>
       </c>
       <c r="D5" t="n">
-        <v>0.365608</v>
+        <v>0.363078</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.451141</v>
+        <v>0.450922</v>
       </c>
       <c r="C6" t="n">
-        <v>0.349939</v>
+        <v>0.347018</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37333</v>
+        <v>0.363789</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.453616</v>
+        <v>0.453259</v>
       </c>
       <c r="C7" t="n">
-        <v>0.353117</v>
+        <v>0.352243</v>
       </c>
       <c r="D7" t="n">
-        <v>0.367603</v>
+        <v>0.368568</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.456536</v>
+        <v>0.455546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.354634</v>
+        <v>0.353304</v>
       </c>
       <c r="D8" t="n">
-        <v>0.369145</v>
+        <v>0.367378</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.457726</v>
+        <v>0.457259</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3563</v>
+        <v>0.355511</v>
       </c>
       <c r="D9" t="n">
-        <v>0.369114</v>
+        <v>0.368245</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.460683</v>
+        <v>0.460068</v>
       </c>
       <c r="C10" t="n">
-        <v>0.358027</v>
+        <v>0.357218</v>
       </c>
       <c r="D10" t="n">
-        <v>0.369962</v>
+        <v>0.369345</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.464042</v>
+        <v>0.46242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.359438</v>
+        <v>0.358528</v>
       </c>
       <c r="D11" t="n">
-        <v>0.372235</v>
+        <v>0.370623</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.467199</v>
+        <v>0.465332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.360647</v>
+        <v>0.359587</v>
       </c>
       <c r="D12" t="n">
-        <v>0.374202</v>
+        <v>0.372312</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.468448</v>
+        <v>0.466952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.362331</v>
+        <v>0.361704</v>
       </c>
       <c r="D13" t="n">
-        <v>0.375895</v>
+        <v>0.373965</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.470743</v>
+        <v>0.468715</v>
       </c>
       <c r="C14" t="n">
-        <v>0.363909</v>
+        <v>0.363288</v>
       </c>
       <c r="D14" t="n">
-        <v>0.376511</v>
+        <v>0.375797</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.472817</v>
+        <v>0.470138</v>
       </c>
       <c r="C15" t="n">
-        <v>0.365226</v>
+        <v>0.364005</v>
       </c>
       <c r="D15" t="n">
-        <v>0.378334</v>
+        <v>0.376134</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.475045</v>
+        <v>0.473155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.365678</v>
+        <v>0.36483</v>
       </c>
       <c r="D16" t="n">
-        <v>0.379182</v>
+        <v>0.377574</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.477437</v>
+        <v>0.474949</v>
       </c>
       <c r="C17" t="n">
-        <v>0.367391</v>
+        <v>0.366682</v>
       </c>
       <c r="D17" t="n">
-        <v>0.380387</v>
+        <v>0.378493</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4765</v>
+        <v>0.473852</v>
       </c>
       <c r="C18" t="n">
-        <v>0.368744</v>
+        <v>0.367781</v>
       </c>
       <c r="D18" t="n">
-        <v>0.381475</v>
+        <v>0.378925</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.478855</v>
+        <v>0.475894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.369918</v>
+        <v>0.368323</v>
       </c>
       <c r="D19" t="n">
-        <v>0.382996</v>
+        <v>0.3806</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.480066</v>
+        <v>0.477276</v>
       </c>
       <c r="C20" t="n">
-        <v>0.371033</v>
+        <v>0.369684</v>
       </c>
       <c r="D20" t="n">
-        <v>0.383351</v>
+        <v>0.381181</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.481874</v>
+        <v>0.478711</v>
       </c>
       <c r="C21" t="n">
-        <v>0.369821</v>
+        <v>0.368037</v>
       </c>
       <c r="D21" t="n">
-        <v>0.384015</v>
+        <v>0.381625</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.482278</v>
+        <v>0.479648</v>
       </c>
       <c r="C22" t="n">
-        <v>0.370514</v>
+        <v>0.368895</v>
       </c>
       <c r="D22" t="n">
-        <v>0.385172</v>
+        <v>0.382428</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.484431</v>
+        <v>0.480979</v>
       </c>
       <c r="C23" t="n">
-        <v>0.371254</v>
+        <v>0.369536</v>
       </c>
       <c r="D23" t="n">
-        <v>0.385816</v>
+        <v>0.382914</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.486135</v>
+        <v>0.482527</v>
       </c>
       <c r="C24" t="n">
-        <v>0.372397</v>
+        <v>0.370333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.387429</v>
+        <v>0.384985</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.487807</v>
+        <v>0.484221</v>
       </c>
       <c r="C25" t="n">
-        <v>0.373552</v>
+        <v>0.371506</v>
       </c>
       <c r="D25" t="n">
-        <v>0.388676</v>
+        <v>0.38629</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.489432</v>
+        <v>0.485852</v>
       </c>
       <c r="C26" t="n">
-        <v>0.373496</v>
+        <v>0.371406</v>
       </c>
       <c r="D26" t="n">
-        <v>0.389085</v>
+        <v>0.386241</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.490842</v>
+        <v>0.487011</v>
       </c>
       <c r="C27" t="n">
-        <v>0.374409</v>
+        <v>0.372343</v>
       </c>
       <c r="D27" t="n">
-        <v>0.389888</v>
+        <v>0.386811</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.491804</v>
+        <v>0.488291</v>
       </c>
       <c r="C28" t="n">
-        <v>0.375924</v>
+        <v>0.373769</v>
       </c>
       <c r="D28" t="n">
-        <v>0.391524</v>
+        <v>0.389067</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.493144</v>
+        <v>0.489612</v>
       </c>
       <c r="C29" t="n">
-        <v>0.376625</v>
+        <v>0.374172</v>
       </c>
       <c r="D29" t="n">
-        <v>0.392974</v>
+        <v>0.389763</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.49506</v>
+        <v>0.491279</v>
       </c>
       <c r="C30" t="n">
-        <v>0.376985</v>
+        <v>0.374641</v>
       </c>
       <c r="D30" t="n">
-        <v>0.392701</v>
+        <v>0.389715</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.497363</v>
+        <v>0.492868</v>
       </c>
       <c r="C31" t="n">
-        <v>0.377798</v>
+        <v>0.375102</v>
       </c>
       <c r="D31" t="n">
-        <v>0.393977</v>
+        <v>0.390695</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.49406</v>
+        <v>0.490524</v>
       </c>
       <c r="C32" t="n">
-        <v>0.378348</v>
+        <v>0.375827</v>
       </c>
       <c r="D32" t="n">
-        <v>0.39497</v>
+        <v>0.391145</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.49524</v>
+        <v>0.491485</v>
       </c>
       <c r="C33" t="n">
-        <v>0.378905</v>
+        <v>0.376353</v>
       </c>
       <c r="D33" t="n">
-        <v>0.399533</v>
+        <v>0.391888</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.496571</v>
+        <v>0.493152</v>
       </c>
       <c r="C34" t="n">
-        <v>0.380539</v>
+        <v>0.377713</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4012</v>
+        <v>0.393445</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.497655</v>
+        <v>0.496383</v>
       </c>
       <c r="C35" t="n">
-        <v>0.378215</v>
+        <v>0.377212</v>
       </c>
       <c r="D35" t="n">
-        <v>0.404054</v>
+        <v>0.397041</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.497326</v>
+        <v>0.49383</v>
       </c>
       <c r="C36" t="n">
-        <v>0.379081</v>
+        <v>0.375636</v>
       </c>
       <c r="D36" t="n">
-        <v>0.405885</v>
+        <v>0.39542</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.500094</v>
+        <v>0.495393</v>
       </c>
       <c r="C37" t="n">
-        <v>0.379333</v>
+        <v>0.376528</v>
       </c>
       <c r="D37" t="n">
-        <v>0.404885</v>
+        <v>0.396646</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.498638</v>
+        <v>0.497009</v>
       </c>
       <c r="C38" t="n">
-        <v>0.380434</v>
+        <v>0.37704</v>
       </c>
       <c r="D38" t="n">
-        <v>0.406978</v>
+        <v>0.39631</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.501983</v>
+        <v>0.499489</v>
       </c>
       <c r="C39" t="n">
-        <v>0.381676</v>
+        <v>0.3773</v>
       </c>
       <c r="D39" t="n">
-        <v>0.406432</v>
+        <v>0.400446</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.502943</v>
+        <v>0.505319</v>
       </c>
       <c r="C40" t="n">
-        <v>0.381463</v>
+        <v>0.378369</v>
       </c>
       <c r="D40" t="n">
-        <v>0.407114</v>
+        <v>0.400815</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.507307</v>
+        <v>0.506376</v>
       </c>
       <c r="C41" t="n">
-        <v>0.383922</v>
+        <v>0.381247</v>
       </c>
       <c r="D41" t="n">
-        <v>0.411303</v>
+        <v>0.409008</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.510734</v>
+        <v>0.529227</v>
       </c>
       <c r="C42" t="n">
-        <v>0.385304</v>
+        <v>0.382661</v>
       </c>
       <c r="D42" t="n">
-        <v>0.41595</v>
+        <v>0.424759</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.529249</v>
+        <v>0.54567</v>
       </c>
       <c r="C43" t="n">
-        <v>0.391405</v>
+        <v>0.38669</v>
       </c>
       <c r="D43" t="n">
-        <v>0.42842</v>
+        <v>0.438695</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.533525</v>
+        <v>0.5442</v>
       </c>
       <c r="C44" t="n">
-        <v>0.396555</v>
+        <v>0.396681</v>
       </c>
       <c r="D44" t="n">
-        <v>0.431462</v>
+        <v>0.442144</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.557055</v>
+        <v>0.579712</v>
       </c>
       <c r="C45" t="n">
-        <v>0.401915</v>
+        <v>0.408863</v>
       </c>
       <c r="D45" t="n">
-        <v>0.453921</v>
+        <v>0.463492</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.566823</v>
+        <v>0.58853</v>
       </c>
       <c r="C46" t="n">
-        <v>0.411658</v>
+        <v>0.415241</v>
       </c>
       <c r="D46" t="n">
-        <v>0.460695</v>
+        <v>0.477303</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.587867</v>
+        <v>0.606778</v>
       </c>
       <c r="C47" t="n">
-        <v>0.435702</v>
+        <v>0.439712</v>
       </c>
       <c r="D47" t="n">
-        <v>0.472262</v>
+        <v>0.486329</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611193</v>
+        <v>0.6369629999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.438984</v>
+        <v>0.460897</v>
       </c>
       <c r="D48" t="n">
-        <v>0.492174</v>
+        <v>0.5127080000000001</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.628834</v>
+        <v>0.66146</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450889</v>
+        <v>0.463466</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5127350000000001</v>
+        <v>0.520546</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.650373</v>
+        <v>0.701572</v>
       </c>
       <c r="C50" t="n">
-        <v>0.490134</v>
+        <v>0.5172330000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.597579</v>
+        <v>0.626594</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.70423</v>
+        <v>0.717544</v>
       </c>
       <c r="C51" t="n">
-        <v>0.518455</v>
+        <v>0.541072</v>
       </c>
       <c r="D51" t="n">
-        <v>0.620201</v>
+        <v>0.636861</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.735528</v>
+        <v>0.761677</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5419659999999999</v>
+        <v>0.552281</v>
       </c>
       <c r="D52" t="n">
-        <v>0.647746</v>
+        <v>0.6753400000000001</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.772215</v>
+        <v>0.80371</v>
       </c>
       <c r="C53" t="n">
-        <v>0.58997</v>
+        <v>0.585493</v>
       </c>
       <c r="D53" t="n">
-        <v>0.668605</v>
+        <v>0.699176</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.809805</v>
+        <v>0.859928</v>
       </c>
       <c r="C54" t="n">
-        <v>0.640086</v>
+        <v>0.647944</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7037330000000001</v>
+        <v>0.743056</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.862226</v>
+        <v>0.914843</v>
       </c>
       <c r="C55" t="n">
-        <v>0.693562</v>
+        <v>0.7132849999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.743263</v>
+        <v>0.787924</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9078079999999999</v>
+        <v>0.966313</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7351799999999999</v>
+        <v>0.757182</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7853520000000001</v>
+        <v>0.830192</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.961246</v>
+        <v>1.01479</v>
       </c>
       <c r="C57" t="n">
-        <v>0.780802</v>
+        <v>0.799889</v>
       </c>
       <c r="D57" t="n">
-        <v>0.828689</v>
+        <v>0.873318</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.02236</v>
+        <v>1.07243</v>
       </c>
       <c r="C58" t="n">
-        <v>0.854498</v>
+        <v>0.864571</v>
       </c>
       <c r="D58" t="n">
-        <v>0.876184</v>
+        <v>0.913878</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.07769</v>
+        <v>1.13628</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9112749999999999</v>
+        <v>0.919667</v>
       </c>
       <c r="D59" t="n">
-        <v>0.915757</v>
+        <v>0.964643</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.13006</v>
+        <v>1.19797</v>
       </c>
       <c r="C60" t="n">
-        <v>0.961737</v>
+        <v>0.980537</v>
       </c>
       <c r="D60" t="n">
-        <v>0.946514</v>
+        <v>1.00433</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.20383</v>
+        <v>1.28034</v>
       </c>
       <c r="C61" t="n">
-        <v>1.01456</v>
+        <v>1.03894</v>
       </c>
       <c r="D61" t="n">
-        <v>0.976277</v>
+        <v>1.03745</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.26671</v>
+        <v>1.35044</v>
       </c>
       <c r="C62" t="n">
-        <v>1.07355</v>
+        <v>1.10417</v>
       </c>
       <c r="D62" t="n">
-        <v>1.01238</v>
+        <v>1.07755</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.32435</v>
+        <v>1.41816</v>
       </c>
       <c r="C63" t="n">
-        <v>1.12313</v>
+        <v>1.16325</v>
       </c>
       <c r="D63" t="n">
-        <v>1.04724</v>
+        <v>1.11708</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.37723</v>
+        <v>1.47877</v>
       </c>
       <c r="C64" t="n">
-        <v>1.21654</v>
+        <v>1.27173</v>
       </c>
       <c r="D64" t="n">
-        <v>1.11923</v>
+        <v>1.20094</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.42606</v>
+        <v>1.52978</v>
       </c>
       <c r="C65" t="n">
-        <v>1.26071</v>
+        <v>1.31672</v>
       </c>
       <c r="D65" t="n">
-        <v>1.14749</v>
+        <v>1.22794</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.47409</v>
+        <v>1.58447</v>
       </c>
       <c r="C66" t="n">
-        <v>1.30799</v>
+        <v>1.38119</v>
       </c>
       <c r="D66" t="n">
-        <v>1.1827</v>
+        <v>1.2663</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.5223</v>
+        <v>1.63496</v>
       </c>
       <c r="C67" t="n">
-        <v>1.35412</v>
+        <v>1.41797</v>
       </c>
       <c r="D67" t="n">
-        <v>1.21189</v>
+        <v>1.29803</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.56701</v>
+        <v>1.68619</v>
       </c>
       <c r="C68" t="n">
-        <v>1.39244</v>
+        <v>1.46386</v>
       </c>
       <c r="D68" t="n">
-        <v>1.23716</v>
+        <v>1.32795</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.61221</v>
+        <v>1.73436</v>
       </c>
       <c r="C69" t="n">
-        <v>1.42737</v>
+        <v>1.5044</v>
       </c>
       <c r="D69" t="n">
-        <v>1.26535</v>
+        <v>1.35898</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.65254</v>
+        <v>1.78021</v>
       </c>
       <c r="C70" t="n">
-        <v>1.46114</v>
+        <v>1.54178</v>
       </c>
       <c r="D70" t="n">
-        <v>1.28712</v>
+        <v>1.38402</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.69303</v>
+        <v>1.82569</v>
       </c>
       <c r="C71" t="n">
-        <v>1.49285</v>
+        <v>1.57626</v>
       </c>
       <c r="D71" t="n">
-        <v>1.31118</v>
+        <v>1.41255</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.73226</v>
+        <v>1.86831</v>
       </c>
       <c r="C72" t="n">
-        <v>1.52264</v>
+        <v>1.61223</v>
       </c>
       <c r="D72" t="n">
-        <v>1.33592</v>
+        <v>1.43966</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.77115</v>
+        <v>1.91001</v>
       </c>
       <c r="C73" t="n">
-        <v>1.54886</v>
+        <v>1.63402</v>
       </c>
       <c r="D73" t="n">
-        <v>1.35694</v>
+        <v>1.46274</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.8042</v>
+        <v>1.94826</v>
       </c>
       <c r="C74" t="n">
-        <v>1.57287</v>
+        <v>1.66215</v>
       </c>
       <c r="D74" t="n">
-        <v>1.37798</v>
+        <v>1.48647</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.8423</v>
+        <v>1.98415</v>
       </c>
       <c r="C75" t="n">
-        <v>1.59919</v>
+        <v>1.67802</v>
       </c>
       <c r="D75" t="n">
-        <v>1.39687</v>
+        <v>1.5112</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.89204</v>
+        <v>2.04962</v>
       </c>
       <c r="C76" t="n">
-        <v>1.62227</v>
+        <v>1.69555</v>
       </c>
       <c r="D76" t="n">
-        <v>1.41076</v>
+        <v>1.53561</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.91871</v>
+        <v>2.08668</v>
       </c>
       <c r="C77" t="n">
-        <v>1.64396</v>
+        <v>1.71917</v>
       </c>
       <c r="D77" t="n">
-        <v>1.43175</v>
+        <v>1.55601</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.94815</v>
+        <v>2.11588</v>
       </c>
       <c r="C78" t="n">
-        <v>1.68971</v>
+        <v>1.76803</v>
       </c>
       <c r="D78" t="n">
-        <v>1.49178</v>
+        <v>1.63007</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.98007</v>
+        <v>2.15102</v>
       </c>
       <c r="C79" t="n">
-        <v>1.70751</v>
+        <v>1.78581</v>
       </c>
       <c r="D79" t="n">
-        <v>1.51779</v>
+        <v>1.64775</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.01203</v>
+        <v>2.18323</v>
       </c>
       <c r="C80" t="n">
-        <v>1.72479</v>
+        <v>1.80412</v>
       </c>
       <c r="D80" t="n">
-        <v>1.53635</v>
+        <v>1.67327</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.04066</v>
+        <v>2.20924</v>
       </c>
       <c r="C81" t="n">
-        <v>1.74592</v>
+        <v>1.82044</v>
       </c>
       <c r="D81" t="n">
-        <v>1.55715</v>
+        <v>1.69244</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.06886</v>
+        <v>2.2327</v>
       </c>
       <c r="C82" t="n">
-        <v>1.75715</v>
+        <v>1.8341</v>
       </c>
       <c r="D82" t="n">
-        <v>1.57695</v>
+        <v>1.70785</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.09528</v>
+        <v>2.25944</v>
       </c>
       <c r="C83" t="n">
-        <v>1.76958</v>
+        <v>1.84907</v>
       </c>
       <c r="D83" t="n">
-        <v>1.59167</v>
+        <v>1.72724</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.11938</v>
+        <v>2.29496</v>
       </c>
       <c r="C84" t="n">
-        <v>1.77941</v>
+        <v>1.86273</v>
       </c>
       <c r="D84" t="n">
-        <v>1.60708</v>
+        <v>1.74348</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.14139</v>
+        <v>2.32319</v>
       </c>
       <c r="C85" t="n">
-        <v>1.80298</v>
+        <v>1.87877</v>
       </c>
       <c r="D85" t="n">
-        <v>1.62252</v>
+        <v>1.766</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.16325</v>
+        <v>2.34743</v>
       </c>
       <c r="C86" t="n">
-        <v>1.80715</v>
+        <v>1.89457</v>
       </c>
       <c r="D86" t="n">
-        <v>1.63324</v>
+        <v>1.78384</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.18913</v>
+        <v>2.37065</v>
       </c>
       <c r="C87" t="n">
-        <v>1.82731</v>
+        <v>1.90811</v>
       </c>
       <c r="D87" t="n">
-        <v>1.64977</v>
+        <v>1.79751</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.21104</v>
+        <v>2.38774</v>
       </c>
       <c r="C88" t="n">
-        <v>1.83332</v>
+        <v>1.91913</v>
       </c>
       <c r="D88" t="n">
-        <v>1.66322</v>
+        <v>1.81299</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.23296</v>
+        <v>2.41221</v>
       </c>
       <c r="C89" t="n">
-        <v>1.84003</v>
+        <v>1.93732</v>
       </c>
       <c r="D89" t="n">
-        <v>1.67692</v>
+        <v>1.83254</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.24637</v>
+        <v>2.42701</v>
       </c>
       <c r="C90" t="n">
-        <v>1.8521</v>
+        <v>1.94925</v>
       </c>
       <c r="D90" t="n">
-        <v>1.69104</v>
+        <v>1.84595</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.26339</v>
+        <v>2.44408</v>
       </c>
       <c r="C91" t="n">
-        <v>1.85874</v>
+        <v>1.96041</v>
       </c>
       <c r="D91" t="n">
-        <v>1.70292</v>
+        <v>1.86003</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.27986</v>
+        <v>2.46626</v>
       </c>
       <c r="C92" t="n">
-        <v>1.86769</v>
+        <v>1.97728</v>
       </c>
       <c r="D92" t="n">
-        <v>1.73714</v>
+        <v>1.89966</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.30314</v>
+        <v>2.48449</v>
       </c>
       <c r="C93" t="n">
-        <v>1.88736</v>
+        <v>1.98788</v>
       </c>
       <c r="D93" t="n">
-        <v>1.75333</v>
+        <v>1.92279</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.32122</v>
+        <v>2.50243</v>
       </c>
       <c r="C94" t="n">
-        <v>1.87055</v>
+        <v>1.99564</v>
       </c>
       <c r="D94" t="n">
-        <v>1.76363</v>
+        <v>1.92711</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.33909</v>
+        <v>2.52205</v>
       </c>
       <c r="C95" t="n">
-        <v>1.91282</v>
+        <v>2.00653</v>
       </c>
       <c r="D95" t="n">
-        <v>1.77621</v>
+        <v>1.94594</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.35625</v>
+        <v>2.53994</v>
       </c>
       <c r="C96" t="n">
-        <v>1.90753</v>
+        <v>2.01699</v>
       </c>
       <c r="D96" t="n">
-        <v>1.79582</v>
+        <v>1.95649</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.38878</v>
+        <v>2.55221</v>
       </c>
       <c r="C97" t="n">
-        <v>1.91184</v>
+        <v>2.02599</v>
       </c>
       <c r="D97" t="n">
-        <v>1.80634</v>
+        <v>1.97133</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.40449</v>
+        <v>2.56823</v>
       </c>
       <c r="C98" t="n">
-        <v>1.92368</v>
+        <v>2.03445</v>
       </c>
       <c r="D98" t="n">
-        <v>1.81553</v>
+        <v>1.9789</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.42015</v>
+        <v>2.58509</v>
       </c>
       <c r="C99" t="n">
-        <v>1.94534</v>
+        <v>2.04397</v>
       </c>
       <c r="D99" t="n">
-        <v>1.82671</v>
+        <v>1.98573</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.43287</v>
+        <v>2.60174</v>
       </c>
       <c r="C100" t="n">
-        <v>1.93371</v>
+        <v>2.05345</v>
       </c>
       <c r="D100" t="n">
-        <v>1.8355</v>
+        <v>2.00679</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.44583</v>
+        <v>2.61571</v>
       </c>
       <c r="C101" t="n">
-        <v>1.9395</v>
+        <v>2.0606</v>
       </c>
       <c r="D101" t="n">
-        <v>1.84394</v>
+        <v>2.016</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.46105</v>
+        <v>2.63004</v>
       </c>
       <c r="C102" t="n">
-        <v>1.94317</v>
+        <v>2.07092</v>
       </c>
       <c r="D102" t="n">
-        <v>1.85191</v>
+        <v>2.02785</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.47483</v>
+        <v>2.64522</v>
       </c>
       <c r="C103" t="n">
-        <v>1.95307</v>
+        <v>2.075</v>
       </c>
       <c r="D103" t="n">
-        <v>1.86195</v>
+        <v>2.02371</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.46871</v>
+        <v>2.65799</v>
       </c>
       <c r="C104" t="n">
-        <v>1.95543</v>
+        <v>2.08476</v>
       </c>
       <c r="D104" t="n">
-        <v>1.86238</v>
+        <v>2.04513</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.46441</v>
+        <v>2.6569</v>
       </c>
       <c r="C105" t="n">
-        <v>1.94385</v>
+        <v>2.09446</v>
       </c>
       <c r="D105" t="n">
-        <v>1.87236</v>
+        <v>2.0522</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.47701</v>
+        <v>2.67476</v>
       </c>
       <c r="C106" t="n">
-        <v>1.95844</v>
+        <v>2.10369</v>
       </c>
       <c r="D106" t="n">
-        <v>1.88119</v>
+        <v>2.04874</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.48685</v>
+        <v>2.68612</v>
       </c>
       <c r="C107" t="n">
-        <v>1.94282</v>
+        <v>2.09782</v>
       </c>
       <c r="D107" t="n">
-        <v>1.89888</v>
+        <v>2.06573</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.50174</v>
+        <v>2.70097</v>
       </c>
       <c r="C108" t="n">
-        <v>1.96313</v>
+        <v>2.10765</v>
       </c>
       <c r="D108" t="n">
-        <v>1.9113</v>
+        <v>2.10536</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.51367</v>
+        <v>2.70884</v>
       </c>
       <c r="C109" t="n">
-        <v>1.95968</v>
+        <v>2.11094</v>
       </c>
       <c r="D109" t="n">
-        <v>1.91888</v>
+        <v>2.08014</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.52136</v>
+        <v>2.71698</v>
       </c>
       <c r="C110" t="n">
-        <v>1.98234</v>
+        <v>2.11487</v>
       </c>
       <c r="D110" t="n">
-        <v>1.92724</v>
+        <v>2.11451</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.53137</v>
+        <v>2.7304</v>
       </c>
       <c r="C111" t="n">
-        <v>1.97974</v>
+        <v>2.12041</v>
       </c>
       <c r="D111" t="n">
-        <v>1.93074</v>
+        <v>2.12023</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.5594</v>
+        <v>2.74062</v>
       </c>
       <c r="C112" t="n">
-        <v>1.97891</v>
+        <v>2.12665</v>
       </c>
       <c r="D112" t="n">
-        <v>1.94644</v>
+        <v>2.12098</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.55256</v>
+        <v>2.7525</v>
       </c>
       <c r="C113" t="n">
-        <v>1.98905</v>
+        <v>2.13306</v>
       </c>
       <c r="D113" t="n">
-        <v>1.95044</v>
+        <v>2.12301</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.56369</v>
+        <v>2.7624</v>
       </c>
       <c r="C114" t="n">
-        <v>1.99118</v>
+        <v>2.14024</v>
       </c>
       <c r="D114" t="n">
-        <v>1.95687</v>
+        <v>2.14121</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.57716</v>
+        <v>2.77204</v>
       </c>
       <c r="C115" t="n">
-        <v>1.99163</v>
+        <v>2.14568</v>
       </c>
       <c r="D115" t="n">
-        <v>1.96471</v>
+        <v>2.1468</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.58939</v>
+        <v>2.7842</v>
       </c>
       <c r="C116" t="n">
-        <v>2.01508</v>
+        <v>2.15137</v>
       </c>
       <c r="D116" t="n">
-        <v>1.96835</v>
+        <v>2.12908</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.59959</v>
+        <v>2.79546</v>
       </c>
       <c r="C117" t="n">
-        <v>2.02482</v>
+        <v>2.15768</v>
       </c>
       <c r="D117" t="n">
-        <v>1.97967</v>
+        <v>2.13346</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.61125</v>
+        <v>2.80999</v>
       </c>
       <c r="C118" t="n">
-        <v>2.0209</v>
+        <v>2.1641</v>
       </c>
       <c r="D118" t="n">
-        <v>1.98823</v>
+        <v>2.14313</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.60326</v>
+        <v>2.79496</v>
       </c>
       <c r="C119" t="n">
-        <v>2.02625</v>
+        <v>2.16904</v>
       </c>
       <c r="D119" t="n">
-        <v>1.9945</v>
+        <v>2.15723</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.450743</v>
+        <v>0.450617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.347085</v>
+        <v>0.349239</v>
       </c>
       <c r="D2" t="n">
-        <v>0.358384</v>
+        <v>0.355753</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455092</v>
+        <v>0.455869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.35348</v>
+        <v>0.352016</v>
       </c>
       <c r="D3" t="n">
-        <v>0.362028</v>
+        <v>0.359453</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.457002</v>
+        <v>0.456771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.358231</v>
+        <v>0.358849</v>
       </c>
       <c r="D4" t="n">
-        <v>0.364637</v>
+        <v>0.362185</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4613</v>
+        <v>0.459934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.36064</v>
+        <v>0.362103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.366597</v>
+        <v>0.364661</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.467766</v>
+        <v>0.4671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.360998</v>
+        <v>0.362809</v>
       </c>
       <c r="D6" t="n">
-        <v>0.368368</v>
+        <v>0.366937</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.471232</v>
+        <v>0.468881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.367821</v>
+        <v>0.366782</v>
       </c>
       <c r="D7" t="n">
-        <v>0.371206</v>
+        <v>0.368914</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.474542</v>
+        <v>0.472588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.370925</v>
+        <v>0.372093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.375492</v>
+        <v>0.373139</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.477272</v>
+        <v>0.475264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.373131</v>
+        <v>0.374244</v>
       </c>
       <c r="D9" t="n">
-        <v>0.37638</v>
+        <v>0.374806</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.482413</v>
+        <v>0.480036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.377273</v>
+        <v>0.378984</v>
       </c>
       <c r="D10" t="n">
-        <v>0.379548</v>
+        <v>0.377645</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.48806</v>
+        <v>0.485995</v>
       </c>
       <c r="C11" t="n">
-        <v>0.36369</v>
+        <v>0.365093</v>
       </c>
       <c r="D11" t="n">
-        <v>0.375604</v>
+        <v>0.37476</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.476686</v>
+        <v>0.474223</v>
       </c>
       <c r="C12" t="n">
-        <v>0.371227</v>
+        <v>0.371945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.37793</v>
+        <v>0.375693</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.479594</v>
+        <v>0.477065</v>
       </c>
       <c r="C13" t="n">
-        <v>0.37138</v>
+        <v>0.373576</v>
       </c>
       <c r="D13" t="n">
-        <v>0.379979</v>
+        <v>0.378304</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.483693</v>
+        <v>0.480813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.374582</v>
+        <v>0.376217</v>
       </c>
       <c r="D14" t="n">
-        <v>0.38169</v>
+        <v>0.37967</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.486844</v>
+        <v>0.483691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.376593</v>
+        <v>0.37704</v>
       </c>
       <c r="D15" t="n">
-        <v>0.382695</v>
+        <v>0.380412</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.490655</v>
+        <v>0.487116</v>
       </c>
       <c r="C16" t="n">
-        <v>0.380554</v>
+        <v>0.377994</v>
       </c>
       <c r="D16" t="n">
-        <v>0.383922</v>
+        <v>0.381961</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.493561</v>
+        <v>0.489994</v>
       </c>
       <c r="C17" t="n">
-        <v>0.383483</v>
+        <v>0.381239</v>
       </c>
       <c r="D17" t="n">
-        <v>0.38563</v>
+        <v>0.383891</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.496868</v>
+        <v>0.493563</v>
       </c>
       <c r="C18" t="n">
-        <v>0.383911</v>
+        <v>0.382047</v>
       </c>
       <c r="D18" t="n">
-        <v>0.388001</v>
+        <v>0.386029</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.497565</v>
+        <v>0.49452</v>
       </c>
       <c r="C19" t="n">
-        <v>0.386967</v>
+        <v>0.385926</v>
       </c>
       <c r="D19" t="n">
-        <v>0.390094</v>
+        <v>0.387621</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.502854</v>
+        <v>0.498192</v>
       </c>
       <c r="C20" t="n">
-        <v>0.388359</v>
+        <v>0.387845</v>
       </c>
       <c r="D20" t="n">
-        <v>0.391916</v>
+        <v>0.389549</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.505244</v>
+        <v>0.500799</v>
       </c>
       <c r="C21" t="n">
-        <v>0.392211</v>
+        <v>0.391506</v>
       </c>
       <c r="D21" t="n">
-        <v>0.394394</v>
+        <v>0.391793</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.507896</v>
+        <v>0.503864</v>
       </c>
       <c r="C22" t="n">
-        <v>0.393671</v>
+        <v>0.394722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.394488</v>
+        <v>0.392832</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.508649</v>
+        <v>0.505792</v>
       </c>
       <c r="C23" t="n">
-        <v>0.397594</v>
+        <v>0.395974</v>
       </c>
       <c r="D23" t="n">
-        <v>0.39575</v>
+        <v>0.393765</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.514683</v>
+        <v>0.509898</v>
       </c>
       <c r="C24" t="n">
-        <v>0.399038</v>
+        <v>0.399388</v>
       </c>
       <c r="D24" t="n">
-        <v>0.398107</v>
+        <v>0.396153</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.517391</v>
+        <v>0.511767</v>
       </c>
       <c r="C25" t="n">
-        <v>0.403211</v>
+        <v>0.401692</v>
       </c>
       <c r="D25" t="n">
-        <v>0.399793</v>
+        <v>0.397535</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.519748</v>
+        <v>0.516069</v>
       </c>
       <c r="C26" t="n">
-        <v>0.384426</v>
+        <v>0.383029</v>
       </c>
       <c r="D26" t="n">
-        <v>0.396766</v>
+        <v>0.392708</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.504748</v>
+        <v>0.499591</v>
       </c>
       <c r="C27" t="n">
-        <v>0.38707</v>
+        <v>0.384862</v>
       </c>
       <c r="D27" t="n">
-        <v>0.399625</v>
+        <v>0.396711</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.505953</v>
+        <v>0.502646</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3891</v>
+        <v>0.386796</v>
       </c>
       <c r="D28" t="n">
-        <v>0.401209</v>
+        <v>0.399919</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.509175</v>
+        <v>0.504534</v>
       </c>
       <c r="C29" t="n">
-        <v>0.388924</v>
+        <v>0.38757</v>
       </c>
       <c r="D29" t="n">
-        <v>0.40301</v>
+        <v>0.399846</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.512053</v>
+        <v>0.507339</v>
       </c>
       <c r="C30" t="n">
-        <v>0.391364</v>
+        <v>0.388946</v>
       </c>
       <c r="D30" t="n">
-        <v>0.403943</v>
+        <v>0.401242</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.514306</v>
+        <v>0.509938</v>
       </c>
       <c r="C31" t="n">
-        <v>0.393027</v>
+        <v>0.390919</v>
       </c>
       <c r="D31" t="n">
-        <v>0.405384</v>
+        <v>0.401697</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.516709</v>
+        <v>0.512083</v>
       </c>
       <c r="C32" t="n">
-        <v>0.395704</v>
+        <v>0.392956</v>
       </c>
       <c r="D32" t="n">
-        <v>0.406586</v>
+        <v>0.402701</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.518966</v>
+        <v>0.514327</v>
       </c>
       <c r="C33" t="n">
-        <v>0.397761</v>
+        <v>0.394493</v>
       </c>
       <c r="D33" t="n">
-        <v>0.408084</v>
+        <v>0.404923</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.521173</v>
+        <v>0.516711</v>
       </c>
       <c r="C34" t="n">
-        <v>0.401031</v>
+        <v>0.398388</v>
       </c>
       <c r="D34" t="n">
-        <v>0.408865</v>
+        <v>0.406837</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.523684</v>
+        <v>0.519305</v>
       </c>
       <c r="C35" t="n">
-        <v>0.402523</v>
+        <v>0.400089</v>
       </c>
       <c r="D35" t="n">
-        <v>0.41111</v>
+        <v>0.408658</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.525711</v>
+        <v>0.5210669999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.405603</v>
+        <v>0.403243</v>
       </c>
       <c r="D36" t="n">
-        <v>0.413079</v>
+        <v>0.409703</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.528271</v>
+        <v>0.523797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.408316</v>
+        <v>0.40559</v>
       </c>
       <c r="D37" t="n">
-        <v>0.414947</v>
+        <v>0.411569</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.531602</v>
+        <v>0.527478</v>
       </c>
       <c r="C38" t="n">
-        <v>0.410751</v>
+        <v>0.408062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.416737</v>
+        <v>0.41296</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.533447</v>
+        <v>0.530141</v>
       </c>
       <c r="C39" t="n">
-        <v>0.412552</v>
+        <v>0.410067</v>
       </c>
       <c r="D39" t="n">
-        <v>0.417335</v>
+        <v>0.413172</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.536814</v>
+        <v>0.53337</v>
       </c>
       <c r="C40" t="n">
-        <v>0.394577</v>
+        <v>0.391798</v>
       </c>
       <c r="D40" t="n">
-        <v>0.41125</v>
+        <v>0.407749</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.52049</v>
+        <v>0.516301</v>
       </c>
       <c r="C41" t="n">
-        <v>0.396726</v>
+        <v>0.39425</v>
       </c>
       <c r="D41" t="n">
-        <v>0.413692</v>
+        <v>0.40864</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.527523</v>
+        <v>0.522194</v>
       </c>
       <c r="C42" t="n">
-        <v>0.399247</v>
+        <v>0.397695</v>
       </c>
       <c r="D42" t="n">
-        <v>0.418863</v>
+        <v>0.413351</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.543056</v>
+        <v>0.529744</v>
       </c>
       <c r="C43" t="n">
-        <v>0.401812</v>
+        <v>0.402269</v>
       </c>
       <c r="D43" t="n">
-        <v>0.429687</v>
+        <v>0.419217</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5523979999999999</v>
+        <v>0.545959</v>
       </c>
       <c r="C44" t="n">
-        <v>0.404732</v>
+        <v>0.404457</v>
       </c>
       <c r="D44" t="n">
-        <v>0.440399</v>
+        <v>0.43469</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.561524</v>
+        <v>0.553556</v>
       </c>
       <c r="C45" t="n">
-        <v>0.417607</v>
+        <v>0.406649</v>
       </c>
       <c r="D45" t="n">
-        <v>0.444897</v>
+        <v>0.43929</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5704360000000001</v>
+        <v>0.564322</v>
       </c>
       <c r="C46" t="n">
-        <v>0.419509</v>
+        <v>0.413297</v>
       </c>
       <c r="D46" t="n">
-        <v>0.450729</v>
+        <v>0.446279</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.585471</v>
+        <v>0.5904160000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.432501</v>
+        <v>0.431036</v>
       </c>
       <c r="D47" t="n">
-        <v>0.464032</v>
+        <v>0.47331</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.599766</v>
+        <v>0.601837</v>
       </c>
       <c r="C48" t="n">
-        <v>0.435225</v>
+        <v>0.442506</v>
       </c>
       <c r="D48" t="n">
-        <v>0.476193</v>
+        <v>0.47893</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.623406</v>
+        <v>0.6266969999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.454538</v>
+        <v>0.450614</v>
       </c>
       <c r="D49" t="n">
-        <v>0.496408</v>
+        <v>0.500856</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.647405</v>
+        <v>0.654682</v>
       </c>
       <c r="C50" t="n">
-        <v>0.471065</v>
+        <v>0.477562</v>
       </c>
       <c r="D50" t="n">
-        <v>0.524142</v>
+        <v>0.530654</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.681501</v>
+        <v>0.692609</v>
       </c>
       <c r="C51" t="n">
-        <v>0.487226</v>
+        <v>0.491105</v>
       </c>
       <c r="D51" t="n">
-        <v>0.555522</v>
+        <v>0.557218</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.705214</v>
+        <v>0.7315430000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.520791</v>
+        <v>0.517358</v>
       </c>
       <c r="D52" t="n">
-        <v>0.573126</v>
+        <v>0.599411</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.733544</v>
+        <v>0.76956</v>
       </c>
       <c r="C53" t="n">
-        <v>0.543405</v>
+        <v>0.5463440000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.603556</v>
+        <v>0.6398470000000001</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.761525</v>
+        <v>0.793942</v>
       </c>
       <c r="C54" t="n">
-        <v>0.527497</v>
+        <v>0.561746</v>
       </c>
       <c r="D54" t="n">
-        <v>0.630258</v>
+        <v>0.663617</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.807246</v>
+        <v>0.828471</v>
       </c>
       <c r="C55" t="n">
-        <v>0.588328</v>
+        <v>0.581306</v>
       </c>
       <c r="D55" t="n">
-        <v>0.668556</v>
+        <v>0.691019</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.840938</v>
+        <v>0.849366</v>
       </c>
       <c r="C56" t="n">
-        <v>0.630937</v>
+        <v>0.599243</v>
       </c>
       <c r="D56" t="n">
-        <v>0.713233</v>
+        <v>0.732583</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.889046</v>
+        <v>0.917319</v>
       </c>
       <c r="C57" t="n">
-        <v>0.655705</v>
+        <v>0.633208</v>
       </c>
       <c r="D57" t="n">
-        <v>0.751624</v>
+        <v>0.785933</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.947662</v>
+        <v>0.994279</v>
       </c>
       <c r="C58" t="n">
-        <v>0.718769</v>
+        <v>0.717151</v>
       </c>
       <c r="D58" t="n">
-        <v>0.795168</v>
+        <v>0.844989</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.002</v>
+        <v>1.04943</v>
       </c>
       <c r="C59" t="n">
-        <v>0.77588</v>
+        <v>0.780655</v>
       </c>
       <c r="D59" t="n">
-        <v>0.833441</v>
+        <v>0.88406</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.05999</v>
+        <v>1.11467</v>
       </c>
       <c r="C60" t="n">
-        <v>0.837412</v>
+        <v>0.825717</v>
       </c>
       <c r="D60" t="n">
-        <v>0.876959</v>
+        <v>0.926567</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.1119</v>
+        <v>1.18451</v>
       </c>
       <c r="C61" t="n">
-        <v>0.892503</v>
+        <v>0.90573</v>
       </c>
       <c r="D61" t="n">
-        <v>0.912093</v>
+        <v>0.970912</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.17701</v>
+        <v>1.25868</v>
       </c>
       <c r="C62" t="n">
-        <v>0.95769</v>
+        <v>0.967584</v>
       </c>
       <c r="D62" t="n">
-        <v>0.951398</v>
+        <v>1.01862</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.23426</v>
+        <v>1.33159</v>
       </c>
       <c r="C63" t="n">
-        <v>1.01327</v>
+        <v>1.04378</v>
       </c>
       <c r="D63" t="n">
-        <v>0.983627</v>
+        <v>1.065</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.29163</v>
+        <v>1.39682</v>
       </c>
       <c r="C64" t="n">
-        <v>1.06088</v>
+        <v>1.10872</v>
       </c>
       <c r="D64" t="n">
-        <v>1.0162</v>
+        <v>1.09711</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.35038</v>
+        <v>1.46649</v>
       </c>
       <c r="C65" t="n">
-        <v>1.12396</v>
+        <v>1.17822</v>
       </c>
       <c r="D65" t="n">
-        <v>1.04695</v>
+        <v>1.138</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.39893</v>
+        <v>1.52513</v>
       </c>
       <c r="C66" t="n">
-        <v>1.1689</v>
+        <v>1.23266</v>
       </c>
       <c r="D66" t="n">
-        <v>1.06956</v>
+        <v>1.16977</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.44705</v>
+        <v>1.58836</v>
       </c>
       <c r="C67" t="n">
-        <v>1.20312</v>
+        <v>1.29066</v>
       </c>
       <c r="D67" t="n">
-        <v>1.09871</v>
+        <v>1.20251</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.50266</v>
+        <v>1.65184</v>
       </c>
       <c r="C68" t="n">
-        <v>1.23069</v>
+        <v>1.32641</v>
       </c>
       <c r="D68" t="n">
-        <v>1.132</v>
+        <v>1.24778</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.56211</v>
+        <v>1.71398</v>
       </c>
       <c r="C69" t="n">
-        <v>1.29246</v>
+        <v>1.38014</v>
       </c>
       <c r="D69" t="n">
-        <v>1.15974</v>
+        <v>1.27372</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.58904</v>
+        <v>1.73222</v>
       </c>
       <c r="C70" t="n">
-        <v>1.33411</v>
+        <v>1.43077</v>
       </c>
       <c r="D70" t="n">
-        <v>1.19343</v>
+        <v>1.30787</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.63476</v>
+        <v>1.78446</v>
       </c>
       <c r="C71" t="n">
-        <v>1.3754</v>
+        <v>1.47695</v>
       </c>
       <c r="D71" t="n">
-        <v>1.22341</v>
+        <v>1.33749</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.68379</v>
+        <v>1.83621</v>
       </c>
       <c r="C72" t="n">
-        <v>1.41861</v>
+        <v>1.52393</v>
       </c>
       <c r="D72" t="n">
-        <v>1.24995</v>
+        <v>1.36574</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.72457</v>
+        <v>1.8842</v>
       </c>
       <c r="C73" t="n">
-        <v>1.45335</v>
+        <v>1.56164</v>
       </c>
       <c r="D73" t="n">
-        <v>1.27083</v>
+        <v>1.39554</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.77527</v>
+        <v>1.93233</v>
       </c>
       <c r="C74" t="n">
-        <v>1.48713</v>
+        <v>1.5988</v>
       </c>
       <c r="D74" t="n">
-        <v>1.30241</v>
+        <v>1.42122</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.81229</v>
+        <v>1.97846</v>
       </c>
       <c r="C75" t="n">
-        <v>1.52238</v>
+        <v>1.63785</v>
       </c>
       <c r="D75" t="n">
-        <v>1.32183</v>
+        <v>1.44983</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.85189</v>
+        <v>2.02288</v>
       </c>
       <c r="C76" t="n">
-        <v>1.55449</v>
+        <v>1.67349</v>
       </c>
       <c r="D76" t="n">
-        <v>1.34635</v>
+        <v>1.47751</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.9007</v>
+        <v>2.06588</v>
       </c>
       <c r="C77" t="n">
-        <v>1.59592</v>
+        <v>1.7132</v>
       </c>
       <c r="D77" t="n">
-        <v>1.37933</v>
+        <v>1.50359</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.95428</v>
+        <v>2.10686</v>
       </c>
       <c r="C78" t="n">
-        <v>1.62228</v>
+        <v>1.74557</v>
       </c>
       <c r="D78" t="n">
-        <v>1.40469</v>
+        <v>1.53025</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.00183</v>
+        <v>2.14793</v>
       </c>
       <c r="C79" t="n">
-        <v>1.6668</v>
+        <v>1.77576</v>
       </c>
       <c r="D79" t="n">
-        <v>1.43542</v>
+        <v>1.55671</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.03962</v>
+        <v>2.19086</v>
       </c>
       <c r="C80" t="n">
-        <v>1.68671</v>
+        <v>1.79954</v>
       </c>
       <c r="D80" t="n">
-        <v>1.45619</v>
+        <v>1.58175</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.08009</v>
+        <v>2.23442</v>
       </c>
       <c r="C81" t="n">
-        <v>1.72574</v>
+        <v>1.84408</v>
       </c>
       <c r="D81" t="n">
-        <v>1.48492</v>
+        <v>1.6107</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.11616</v>
+        <v>2.27741</v>
       </c>
       <c r="C82" t="n">
-        <v>1.75128</v>
+        <v>1.87507</v>
       </c>
       <c r="D82" t="n">
-        <v>1.5027</v>
+        <v>1.63916</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.15851</v>
+        <v>2.32179</v>
       </c>
       <c r="C83" t="n">
-        <v>1.7297</v>
+        <v>1.8335</v>
       </c>
       <c r="D83" t="n">
-        <v>1.51683</v>
+        <v>1.64958</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.19998</v>
+        <v>2.36374</v>
       </c>
       <c r="C84" t="n">
-        <v>1.75692</v>
+        <v>1.8477</v>
       </c>
       <c r="D84" t="n">
-        <v>1.53943</v>
+        <v>1.67764</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.16782</v>
+        <v>2.32654</v>
       </c>
       <c r="C85" t="n">
-        <v>1.77951</v>
+        <v>1.86824</v>
       </c>
       <c r="D85" t="n">
-        <v>1.55148</v>
+        <v>1.6941</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.19679</v>
+        <v>2.35583</v>
       </c>
       <c r="C86" t="n">
-        <v>1.80088</v>
+        <v>1.89224</v>
       </c>
       <c r="D86" t="n">
-        <v>1.57671</v>
+        <v>1.71544</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.22903</v>
+        <v>2.38433</v>
       </c>
       <c r="C87" t="n">
-        <v>1.82216</v>
+        <v>1.90772</v>
       </c>
       <c r="D87" t="n">
-        <v>1.59378</v>
+        <v>1.73226</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.25179</v>
+        <v>2.41863</v>
       </c>
       <c r="C88" t="n">
-        <v>1.84546</v>
+        <v>1.93454</v>
       </c>
       <c r="D88" t="n">
-        <v>1.61086</v>
+        <v>1.75455</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.28285</v>
+        <v>2.44663</v>
       </c>
       <c r="C89" t="n">
-        <v>1.86401</v>
+        <v>1.95801</v>
       </c>
       <c r="D89" t="n">
-        <v>1.62702</v>
+        <v>1.77231</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.31046</v>
+        <v>2.47248</v>
       </c>
       <c r="C90" t="n">
-        <v>1.87931</v>
+        <v>1.9745</v>
       </c>
       <c r="D90" t="n">
-        <v>1.64593</v>
+        <v>1.79494</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.34093</v>
+        <v>2.50119</v>
       </c>
       <c r="C91" t="n">
-        <v>1.90619</v>
+        <v>1.99794</v>
       </c>
       <c r="D91" t="n">
-        <v>1.66625</v>
+        <v>1.81395</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.371</v>
+        <v>2.52996</v>
       </c>
       <c r="C92" t="n">
-        <v>1.93323</v>
+        <v>2.02366</v>
       </c>
       <c r="D92" t="n">
-        <v>1.68668</v>
+        <v>1.83511</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.39707</v>
+        <v>2.5608</v>
       </c>
       <c r="C93" t="n">
-        <v>1.95053</v>
+        <v>2.04758</v>
       </c>
       <c r="D93" t="n">
-        <v>1.70067</v>
+        <v>1.85305</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.42992</v>
+        <v>2.59005</v>
       </c>
       <c r="C94" t="n">
-        <v>1.9683</v>
+        <v>2.06477</v>
       </c>
       <c r="D94" t="n">
-        <v>1.71637</v>
+        <v>1.87686</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.45663</v>
+        <v>2.62181</v>
       </c>
       <c r="C95" t="n">
-        <v>2.00303</v>
+        <v>2.09158</v>
       </c>
       <c r="D95" t="n">
-        <v>1.73439</v>
+        <v>1.8947</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.48492</v>
+        <v>2.6554</v>
       </c>
       <c r="C96" t="n">
-        <v>2.02028</v>
+        <v>2.11748</v>
       </c>
       <c r="D96" t="n">
-        <v>1.75294</v>
+        <v>1.91805</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.51832</v>
+        <v>2.6882</v>
       </c>
       <c r="C97" t="n">
-        <v>1.94195</v>
+        <v>2.05443</v>
       </c>
       <c r="D97" t="n">
-        <v>1.75434</v>
+        <v>1.92179</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.54955</v>
+        <v>2.7138</v>
       </c>
       <c r="C98" t="n">
-        <v>1.97328</v>
+        <v>2.0727</v>
       </c>
       <c r="D98" t="n">
-        <v>1.77363</v>
+        <v>1.941</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.47646</v>
+        <v>2.63907</v>
       </c>
       <c r="C99" t="n">
-        <v>1.99411</v>
+        <v>2.08856</v>
       </c>
       <c r="D99" t="n">
-        <v>1.79038</v>
+        <v>1.95354</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.49138</v>
+        <v>2.66057</v>
       </c>
       <c r="C100" t="n">
-        <v>2.00282</v>
+        <v>2.10623</v>
       </c>
       <c r="D100" t="n">
-        <v>1.79554</v>
+        <v>1.97589</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.51691</v>
+        <v>2.68549</v>
       </c>
       <c r="C101" t="n">
-        <v>2.03049</v>
+        <v>2.12381</v>
       </c>
       <c r="D101" t="n">
-        <v>1.81615</v>
+        <v>1.9919</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.54249</v>
+        <v>2.70983</v>
       </c>
       <c r="C102" t="n">
-        <v>2.04185</v>
+        <v>2.14362</v>
       </c>
       <c r="D102" t="n">
-        <v>1.83452</v>
+        <v>2.00494</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.56204</v>
+        <v>2.72939</v>
       </c>
       <c r="C103" t="n">
-        <v>2.05365</v>
+        <v>2.1615</v>
       </c>
       <c r="D103" t="n">
-        <v>1.84904</v>
+        <v>2.01497</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.58519</v>
+        <v>2.75338</v>
       </c>
       <c r="C104" t="n">
-        <v>2.05147</v>
+        <v>2.17989</v>
       </c>
       <c r="D104" t="n">
-        <v>1.86139</v>
+        <v>2.03802</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.60961</v>
+        <v>2.77624</v>
       </c>
       <c r="C105" t="n">
-        <v>2.09672</v>
+        <v>2.19951</v>
       </c>
       <c r="D105" t="n">
-        <v>1.8807</v>
+        <v>2.05449</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.63256</v>
+        <v>2.80341</v>
       </c>
       <c r="C106" t="n">
-        <v>2.11281</v>
+        <v>2.21768</v>
       </c>
       <c r="D106" t="n">
-        <v>1.89545</v>
+        <v>2.07134</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.65724</v>
+        <v>2.82702</v>
       </c>
       <c r="C107" t="n">
-        <v>2.12552</v>
+        <v>2.2353</v>
       </c>
       <c r="D107" t="n">
-        <v>1.90847</v>
+        <v>2.08708</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68178</v>
+        <v>2.85045</v>
       </c>
       <c r="C108" t="n">
-        <v>2.15896</v>
+        <v>2.2602</v>
       </c>
       <c r="D108" t="n">
-        <v>1.9257</v>
+        <v>2.10233</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.70601</v>
+        <v>2.87478</v>
       </c>
       <c r="C109" t="n">
-        <v>2.15681</v>
+        <v>2.2781</v>
       </c>
       <c r="D109" t="n">
-        <v>1.94044</v>
+        <v>2.11705</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.72371</v>
+        <v>2.89952</v>
       </c>
       <c r="C110" t="n">
-        <v>2.19251</v>
+        <v>2.30141</v>
       </c>
       <c r="D110" t="n">
-        <v>1.95017</v>
+        <v>2.13543</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.75363</v>
+        <v>2.92436</v>
       </c>
       <c r="C111" t="n">
-        <v>2.07864</v>
+        <v>2.19399</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94098</v>
+        <v>2.10473</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.77589</v>
+        <v>2.94967</v>
       </c>
       <c r="C112" t="n">
-        <v>2.10314</v>
+        <v>2.21069</v>
       </c>
       <c r="D112" t="n">
-        <v>1.9559</v>
+        <v>2.12385</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.80071</v>
+        <v>2.97636</v>
       </c>
       <c r="C113" t="n">
-        <v>2.11078</v>
+        <v>2.21802</v>
       </c>
       <c r="D113" t="n">
-        <v>1.96777</v>
+        <v>2.13445</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.68463</v>
+        <v>2.85352</v>
       </c>
       <c r="C114" t="n">
-        <v>2.11455</v>
+        <v>2.23996</v>
       </c>
       <c r="D114" t="n">
-        <v>1.97796</v>
+        <v>2.14999</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.70446</v>
+        <v>2.86886</v>
       </c>
       <c r="C115" t="n">
-        <v>2.12348</v>
+        <v>2.25426</v>
       </c>
       <c r="D115" t="n">
-        <v>1.99018</v>
+        <v>2.16328</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.72619</v>
+        <v>2.88905</v>
       </c>
       <c r="C116" t="n">
-        <v>2.15387</v>
+        <v>2.2692</v>
       </c>
       <c r="D116" t="n">
-        <v>2.00383</v>
+        <v>2.17124</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.74369</v>
+        <v>2.91178</v>
       </c>
       <c r="C117" t="n">
-        <v>2.15159</v>
+        <v>2.28458</v>
       </c>
       <c r="D117" t="n">
-        <v>2.01655</v>
+        <v>2.17824</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.76147</v>
+        <v>2.93078</v>
       </c>
       <c r="C118" t="n">
-        <v>2.18195</v>
+        <v>2.29832</v>
       </c>
       <c r="D118" t="n">
-        <v>2.02829</v>
+        <v>2.19968</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.78261</v>
+        <v>2.94725</v>
       </c>
       <c r="C119" t="n">
-        <v>2.20189</v>
+        <v>2.31647</v>
       </c>
       <c r="D119" t="n">
-        <v>2.04284</v>
+        <v>2.21534</v>
       </c>
     </row>
   </sheetData>

--- a/gcc/scattered erasure by key.xlsx
+++ b/gcc/scattered erasure by key.xlsx
@@ -5246,13 +5246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.439135</v>
+        <v>0.435834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.338287</v>
+        <v>0.335894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.355194</v>
+        <v>0.354483</v>
       </c>
     </row>
     <row r="3">
@@ -5260,13 +5260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.440179</v>
+        <v>0.437973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.340926</v>
+        <v>0.337802</v>
       </c>
       <c r="D3" t="n">
-        <v>0.357024</v>
+        <v>0.361458</v>
       </c>
     </row>
     <row r="4">
@@ -5274,13 +5274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444175</v>
+        <v>0.441527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.343887</v>
+        <v>0.341667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.358997</v>
+        <v>0.361637</v>
       </c>
     </row>
     <row r="5">
@@ -5288,13 +5288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.449107</v>
+        <v>0.445807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.346073</v>
+        <v>0.343867</v>
       </c>
       <c r="D5" t="n">
-        <v>0.363078</v>
+        <v>0.365666</v>
       </c>
     </row>
     <row r="6">
@@ -5302,13 +5302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.450922</v>
+        <v>0.447186</v>
       </c>
       <c r="C6" t="n">
-        <v>0.347018</v>
+        <v>0.344329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.363789</v>
+        <v>0.374323</v>
       </c>
     </row>
     <row r="7">
@@ -5316,13 +5316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.453259</v>
+        <v>0.449901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.352243</v>
+        <v>0.348294</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368568</v>
+        <v>0.368116</v>
       </c>
     </row>
     <row r="8">
@@ -5330,13 +5330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.455546</v>
+        <v>0.452138</v>
       </c>
       <c r="C8" t="n">
-        <v>0.353304</v>
+        <v>0.349024</v>
       </c>
       <c r="D8" t="n">
-        <v>0.367378</v>
+        <v>0.367852</v>
       </c>
     </row>
     <row r="9">
@@ -5344,13 +5344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.457259</v>
+        <v>0.454939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.355511</v>
+        <v>0.350764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.368245</v>
+        <v>0.368558</v>
       </c>
     </row>
     <row r="10">
@@ -5358,13 +5358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.460068</v>
+        <v>0.4566</v>
       </c>
       <c r="C10" t="n">
-        <v>0.357218</v>
+        <v>0.35251</v>
       </c>
       <c r="D10" t="n">
-        <v>0.369345</v>
+        <v>0.369908</v>
       </c>
     </row>
     <row r="11">
@@ -5372,13 +5372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.46242</v>
+        <v>0.460057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.358528</v>
+        <v>0.353992</v>
       </c>
       <c r="D11" t="n">
-        <v>0.370623</v>
+        <v>0.372875</v>
       </c>
     </row>
     <row r="12">
@@ -5386,13 +5386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.465332</v>
+        <v>0.462515</v>
       </c>
       <c r="C12" t="n">
-        <v>0.359587</v>
+        <v>0.35517</v>
       </c>
       <c r="D12" t="n">
-        <v>0.372312</v>
+        <v>0.374306</v>
       </c>
     </row>
     <row r="13">
@@ -5400,13 +5400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.466952</v>
+        <v>0.464821</v>
       </c>
       <c r="C13" t="n">
-        <v>0.361704</v>
+        <v>0.357799</v>
       </c>
       <c r="D13" t="n">
-        <v>0.373965</v>
+        <v>0.376212</v>
       </c>
     </row>
     <row r="14">
@@ -5414,13 +5414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.468715</v>
+        <v>0.466492</v>
       </c>
       <c r="C14" t="n">
-        <v>0.363288</v>
+        <v>0.358981</v>
       </c>
       <c r="D14" t="n">
-        <v>0.375797</v>
+        <v>0.380798</v>
       </c>
     </row>
     <row r="15">
@@ -5428,13 +5428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.470138</v>
+        <v>0.468937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.364005</v>
+        <v>0.359762</v>
       </c>
       <c r="D15" t="n">
-        <v>0.376134</v>
+        <v>0.385277</v>
       </c>
     </row>
     <row r="16">
@@ -5442,13 +5442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.473155</v>
+        <v>0.470918</v>
       </c>
       <c r="C16" t="n">
-        <v>0.36483</v>
+        <v>0.360074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.377574</v>
+        <v>0.387978</v>
       </c>
     </row>
     <row r="17">
@@ -5456,13 +5456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.474949</v>
+        <v>0.4733</v>
       </c>
       <c r="C17" t="n">
-        <v>0.366682</v>
+        <v>0.361886</v>
       </c>
       <c r="D17" t="n">
-        <v>0.378493</v>
+        <v>0.380641</v>
       </c>
     </row>
     <row r="18">
@@ -5470,13 +5470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.473852</v>
+        <v>0.472912</v>
       </c>
       <c r="C18" t="n">
-        <v>0.367781</v>
+        <v>0.363409</v>
       </c>
       <c r="D18" t="n">
-        <v>0.378925</v>
+        <v>0.391848</v>
       </c>
     </row>
     <row r="19">
@@ -5484,13 +5484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.475894</v>
+        <v>0.475076</v>
       </c>
       <c r="C19" t="n">
-        <v>0.368323</v>
+        <v>0.364295</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3806</v>
+        <v>0.390105</v>
       </c>
     </row>
     <row r="20">
@@ -5498,13 +5498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.477276</v>
+        <v>0.474867</v>
       </c>
       <c r="C20" t="n">
-        <v>0.369684</v>
+        <v>0.365132</v>
       </c>
       <c r="D20" t="n">
-        <v>0.381181</v>
+        <v>0.389002</v>
       </c>
     </row>
     <row r="21">
@@ -5512,13 +5512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.478711</v>
+        <v>0.477115</v>
       </c>
       <c r="C21" t="n">
-        <v>0.368037</v>
+        <v>0.364068</v>
       </c>
       <c r="D21" t="n">
-        <v>0.381625</v>
+        <v>0.383709</v>
       </c>
     </row>
     <row r="22">
@@ -5526,13 +5526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.479648</v>
+        <v>0.479286</v>
       </c>
       <c r="C22" t="n">
-        <v>0.368895</v>
+        <v>0.364803</v>
       </c>
       <c r="D22" t="n">
-        <v>0.382428</v>
+        <v>0.384412</v>
       </c>
     </row>
     <row r="23">
@@ -5540,13 +5540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.480979</v>
+        <v>0.480168</v>
       </c>
       <c r="C23" t="n">
-        <v>0.369536</v>
+        <v>0.365531</v>
       </c>
       <c r="D23" t="n">
-        <v>0.382914</v>
+        <v>0.385231</v>
       </c>
     </row>
     <row r="24">
@@ -5554,13 +5554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.482527</v>
+        <v>0.482962</v>
       </c>
       <c r="C24" t="n">
-        <v>0.370333</v>
+        <v>0.366514</v>
       </c>
       <c r="D24" t="n">
-        <v>0.384985</v>
+        <v>0.392224</v>
       </c>
     </row>
     <row r="25">
@@ -5568,13 +5568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.484221</v>
+        <v>0.486581</v>
       </c>
       <c r="C25" t="n">
-        <v>0.371506</v>
+        <v>0.367918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.38629</v>
+        <v>0.393605</v>
       </c>
     </row>
     <row r="26">
@@ -5582,13 +5582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.485852</v>
+        <v>0.488138</v>
       </c>
       <c r="C26" t="n">
-        <v>0.371406</v>
+        <v>0.367697</v>
       </c>
       <c r="D26" t="n">
-        <v>0.386241</v>
+        <v>0.393531</v>
       </c>
     </row>
     <row r="27">
@@ -5596,13 +5596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.487011</v>
+        <v>0.488986</v>
       </c>
       <c r="C27" t="n">
-        <v>0.372343</v>
+        <v>0.368866</v>
       </c>
       <c r="D27" t="n">
-        <v>0.386811</v>
+        <v>0.395029</v>
       </c>
     </row>
     <row r="28">
@@ -5610,13 +5610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.488291</v>
+        <v>0.490033</v>
       </c>
       <c r="C28" t="n">
-        <v>0.373769</v>
+        <v>0.370437</v>
       </c>
       <c r="D28" t="n">
-        <v>0.389067</v>
+        <v>0.396493</v>
       </c>
     </row>
     <row r="29">
@@ -5624,13 +5624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.489612</v>
+        <v>0.491136</v>
       </c>
       <c r="C29" t="n">
-        <v>0.374172</v>
+        <v>0.370733</v>
       </c>
       <c r="D29" t="n">
-        <v>0.389763</v>
+        <v>0.396881</v>
       </c>
     </row>
     <row r="30">
@@ -5638,13 +5638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.491279</v>
+        <v>0.49369</v>
       </c>
       <c r="C30" t="n">
-        <v>0.374641</v>
+        <v>0.37137</v>
       </c>
       <c r="D30" t="n">
-        <v>0.389715</v>
+        <v>0.397569</v>
       </c>
     </row>
     <row r="31">
@@ -5652,13 +5652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.492868</v>
+        <v>0.494999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.375102</v>
+        <v>0.37209</v>
       </c>
       <c r="D31" t="n">
-        <v>0.390695</v>
+        <v>0.398438</v>
       </c>
     </row>
     <row r="32">
@@ -5666,13 +5666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.490524</v>
+        <v>0.492227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.375827</v>
+        <v>0.372943</v>
       </c>
       <c r="D32" t="n">
-        <v>0.391145</v>
+        <v>0.399658</v>
       </c>
     </row>
     <row r="33">
@@ -5680,13 +5680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.491485</v>
+        <v>0.493666</v>
       </c>
       <c r="C33" t="n">
-        <v>0.376353</v>
+        <v>0.37331</v>
       </c>
       <c r="D33" t="n">
-        <v>0.391888</v>
+        <v>0.400441</v>
       </c>
     </row>
     <row r="34">
@@ -5694,13 +5694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.493152</v>
+        <v>0.494535</v>
       </c>
       <c r="C34" t="n">
-        <v>0.377713</v>
+        <v>0.374886</v>
       </c>
       <c r="D34" t="n">
-        <v>0.393445</v>
+        <v>0.401318</v>
       </c>
     </row>
     <row r="35">
@@ -5708,13 +5708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.496383</v>
+        <v>0.495533</v>
       </c>
       <c r="C35" t="n">
-        <v>0.377212</v>
+        <v>0.372884</v>
       </c>
       <c r="D35" t="n">
-        <v>0.397041</v>
+        <v>0.403961</v>
       </c>
     </row>
     <row r="36">
@@ -5722,13 +5722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.49383</v>
+        <v>0.496942</v>
       </c>
       <c r="C36" t="n">
-        <v>0.375636</v>
+        <v>0.37311</v>
       </c>
       <c r="D36" t="n">
-        <v>0.39542</v>
+        <v>0.406962</v>
       </c>
     </row>
     <row r="37">
@@ -5736,13 +5736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.495393</v>
+        <v>0.499686</v>
       </c>
       <c r="C37" t="n">
-        <v>0.376528</v>
+        <v>0.375481</v>
       </c>
       <c r="D37" t="n">
-        <v>0.396646</v>
+        <v>0.408849</v>
       </c>
     </row>
     <row r="38">
@@ -5750,13 +5750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.497009</v>
+        <v>0.505097</v>
       </c>
       <c r="C38" t="n">
-        <v>0.37704</v>
+        <v>0.374615</v>
       </c>
       <c r="D38" t="n">
-        <v>0.39631</v>
+        <v>0.411512</v>
       </c>
     </row>
     <row r="39">
@@ -5764,13 +5764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.499489</v>
+        <v>0.508876</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3773</v>
+        <v>0.376914</v>
       </c>
       <c r="D39" t="n">
-        <v>0.400446</v>
+        <v>0.414268</v>
       </c>
     </row>
     <row r="40">
@@ -5778,13 +5778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.505319</v>
+        <v>0.511468</v>
       </c>
       <c r="C40" t="n">
-        <v>0.378369</v>
+        <v>0.380008</v>
       </c>
       <c r="D40" t="n">
-        <v>0.400815</v>
+        <v>0.4277</v>
       </c>
     </row>
     <row r="41">
@@ -5792,13 +5792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.506376</v>
+        <v>0.51655</v>
       </c>
       <c r="C41" t="n">
-        <v>0.381247</v>
+        <v>0.387962</v>
       </c>
       <c r="D41" t="n">
-        <v>0.409008</v>
+        <v>0.423743</v>
       </c>
     </row>
     <row r="42">
@@ -5806,13 +5806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.529227</v>
+        <v>0.520074</v>
       </c>
       <c r="C42" t="n">
-        <v>0.382661</v>
+        <v>0.386619</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424759</v>
+        <v>0.430511</v>
       </c>
     </row>
     <row r="43">
@@ -5820,13 +5820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.54567</v>
+        <v>0.532825</v>
       </c>
       <c r="C43" t="n">
-        <v>0.38669</v>
+        <v>0.387719</v>
       </c>
       <c r="D43" t="n">
-        <v>0.438695</v>
+        <v>0.436023</v>
       </c>
     </row>
     <row r="44">
@@ -5834,13 +5834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5442</v>
+        <v>0.549306</v>
       </c>
       <c r="C44" t="n">
-        <v>0.396681</v>
+        <v>0.397477</v>
       </c>
       <c r="D44" t="n">
-        <v>0.442144</v>
+        <v>0.454754</v>
       </c>
     </row>
     <row r="45">
@@ -5848,13 +5848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.579712</v>
+        <v>0.559895</v>
       </c>
       <c r="C45" t="n">
-        <v>0.408863</v>
+        <v>0.404487</v>
       </c>
       <c r="D45" t="n">
-        <v>0.463492</v>
+        <v>0.461534</v>
       </c>
     </row>
     <row r="46">
@@ -5862,13 +5862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.58853</v>
+        <v>0.576882</v>
       </c>
       <c r="C46" t="n">
-        <v>0.415241</v>
+        <v>0.418574</v>
       </c>
       <c r="D46" t="n">
-        <v>0.477303</v>
+        <v>0.480362</v>
       </c>
     </row>
     <row r="47">
@@ -5876,13 +5876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.606778</v>
+        <v>0.59191</v>
       </c>
       <c r="C47" t="n">
-        <v>0.439712</v>
+        <v>0.432106</v>
       </c>
       <c r="D47" t="n">
-        <v>0.486329</v>
+        <v>0.490227</v>
       </c>
     </row>
     <row r="48">
@@ -5890,13 +5890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6369629999999999</v>
+        <v>0.613138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.460897</v>
+        <v>0.437263</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5127080000000001</v>
+        <v>0.506139</v>
       </c>
     </row>
     <row r="49">
@@ -5904,13 +5904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.66146</v>
+        <v>0.637725</v>
       </c>
       <c r="C49" t="n">
-        <v>0.463466</v>
+        <v>0.459006</v>
       </c>
       <c r="D49" t="n">
-        <v>0.520546</v>
+        <v>0.529322</v>
       </c>
     </row>
     <row r="50">
@@ -5918,13 +5918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.701572</v>
+        <v>0.6662400000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5172330000000001</v>
+        <v>0.496339</v>
       </c>
       <c r="D50" t="n">
-        <v>0.626594</v>
+        <v>0.613819</v>
       </c>
     </row>
     <row r="51">
@@ -5932,13 +5932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.717544</v>
+        <v>0.693791</v>
       </c>
       <c r="C51" t="n">
-        <v>0.541072</v>
+        <v>0.511388</v>
       </c>
       <c r="D51" t="n">
-        <v>0.636861</v>
+        <v>0.625509</v>
       </c>
     </row>
     <row r="52">
@@ -5946,13 +5946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.761677</v>
+        <v>0.729564</v>
       </c>
       <c r="C52" t="n">
-        <v>0.552281</v>
+        <v>0.553879</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6753400000000001</v>
+        <v>0.652822</v>
       </c>
     </row>
     <row r="53">
@@ -5960,13 +5960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.80371</v>
+        <v>0.767106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.585493</v>
+        <v>0.587551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.699176</v>
+        <v>0.67755</v>
       </c>
     </row>
     <row r="54">
@@ -5974,13 +5974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.859928</v>
+        <v>0.801577</v>
       </c>
       <c r="C54" t="n">
-        <v>0.647944</v>
+        <v>0.620621</v>
       </c>
       <c r="D54" t="n">
-        <v>0.743056</v>
+        <v>0.707404</v>
       </c>
     </row>
     <row r="55">
@@ -5988,13 +5988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.914843</v>
+        <v>0.846027</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7132849999999999</v>
+        <v>0.675858</v>
       </c>
       <c r="D55" t="n">
-        <v>0.787924</v>
+        <v>0.748906</v>
       </c>
     </row>
     <row r="56">
@@ -6002,13 +6002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.966313</v>
+        <v>0.899033</v>
       </c>
       <c r="C56" t="n">
-        <v>0.757182</v>
+        <v>0.717123</v>
       </c>
       <c r="D56" t="n">
-        <v>0.830192</v>
+        <v>0.795053</v>
       </c>
     </row>
     <row r="57">
@@ -6016,13 +6016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.01479</v>
+        <v>0.948497</v>
       </c>
       <c r="C57" t="n">
-        <v>0.799889</v>
+        <v>0.760235</v>
       </c>
       <c r="D57" t="n">
-        <v>0.873318</v>
+        <v>0.834924</v>
       </c>
     </row>
     <row r="58">
@@ -6030,13 +6030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.07243</v>
+        <v>0.99561</v>
       </c>
       <c r="C58" t="n">
-        <v>0.864571</v>
+        <v>0.82123</v>
       </c>
       <c r="D58" t="n">
-        <v>0.913878</v>
+        <v>0.871102</v>
       </c>
     </row>
     <row r="59">
@@ -6044,13 +6044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.13628</v>
+        <v>1.04728</v>
       </c>
       <c r="C59" t="n">
-        <v>0.919667</v>
+        <v>0.871996</v>
       </c>
       <c r="D59" t="n">
-        <v>0.964643</v>
+        <v>0.909223</v>
       </c>
     </row>
     <row r="60">
@@ -6058,13 +6058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.19797</v>
+        <v>1.0992</v>
       </c>
       <c r="C60" t="n">
-        <v>0.980537</v>
+        <v>0.929385</v>
       </c>
       <c r="D60" t="n">
-        <v>1.00433</v>
+        <v>0.943283</v>
       </c>
     </row>
     <row r="61">
@@ -6072,13 +6072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.28034</v>
+        <v>1.17386</v>
       </c>
       <c r="C61" t="n">
-        <v>1.03894</v>
+        <v>0.977014</v>
       </c>
       <c r="D61" t="n">
-        <v>1.03745</v>
+        <v>0.978174</v>
       </c>
     </row>
     <row r="62">
@@ -6086,13 +6086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.35044</v>
+        <v>1.23409</v>
       </c>
       <c r="C62" t="n">
-        <v>1.10417</v>
+        <v>1.03109</v>
       </c>
       <c r="D62" t="n">
-        <v>1.07755</v>
+        <v>1.01387</v>
       </c>
     </row>
     <row r="63">
@@ -6100,13 +6100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.41816</v>
+        <v>1.29473</v>
       </c>
       <c r="C63" t="n">
-        <v>1.16325</v>
+        <v>1.08458</v>
       </c>
       <c r="D63" t="n">
-        <v>1.11708</v>
+        <v>1.04664</v>
       </c>
     </row>
     <row r="64">
@@ -6114,13 +6114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.47877</v>
+        <v>1.35145</v>
       </c>
       <c r="C64" t="n">
-        <v>1.27173</v>
+        <v>1.18839</v>
       </c>
       <c r="D64" t="n">
-        <v>1.20094</v>
+        <v>1.12646</v>
       </c>
     </row>
     <row r="65">
@@ -6128,13 +6128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.52978</v>
+        <v>1.40025</v>
       </c>
       <c r="C65" t="n">
-        <v>1.31672</v>
+        <v>1.22571</v>
       </c>
       <c r="D65" t="n">
-        <v>1.22794</v>
+        <v>1.14995</v>
       </c>
     </row>
     <row r="66">
@@ -6142,13 +6142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.58447</v>
+        <v>1.44392</v>
       </c>
       <c r="C66" t="n">
-        <v>1.38119</v>
+        <v>1.27077</v>
       </c>
       <c r="D66" t="n">
-        <v>1.2663</v>
+        <v>1.18562</v>
       </c>
     </row>
     <row r="67">
@@ -6156,13 +6156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.63496</v>
+        <v>1.49441</v>
       </c>
       <c r="C67" t="n">
-        <v>1.41797</v>
+        <v>1.32115</v>
       </c>
       <c r="D67" t="n">
-        <v>1.29803</v>
+        <v>1.21439</v>
       </c>
     </row>
     <row r="68">
@@ -6170,13 +6170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.68619</v>
+        <v>1.54138</v>
       </c>
       <c r="C68" t="n">
-        <v>1.46386</v>
+        <v>1.36123</v>
       </c>
       <c r="D68" t="n">
-        <v>1.32795</v>
+        <v>1.24278</v>
       </c>
     </row>
     <row r="69">
@@ -6184,13 +6184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.73436</v>
+        <v>1.58753</v>
       </c>
       <c r="C69" t="n">
-        <v>1.5044</v>
+        <v>1.39687</v>
       </c>
       <c r="D69" t="n">
-        <v>1.35898</v>
+        <v>1.26947</v>
       </c>
     </row>
     <row r="70">
@@ -6198,13 +6198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.78021</v>
+        <v>1.62772</v>
       </c>
       <c r="C70" t="n">
-        <v>1.54178</v>
+        <v>1.42694</v>
       </c>
       <c r="D70" t="n">
-        <v>1.38402</v>
+        <v>1.29142</v>
       </c>
     </row>
     <row r="71">
@@ -6212,13 +6212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.82569</v>
+        <v>1.66726</v>
       </c>
       <c r="C71" t="n">
-        <v>1.57626</v>
+        <v>1.4601</v>
       </c>
       <c r="D71" t="n">
-        <v>1.41255</v>
+        <v>1.31737</v>
       </c>
     </row>
     <row r="72">
@@ -6226,13 +6226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.86831</v>
+        <v>1.70519</v>
       </c>
       <c r="C72" t="n">
-        <v>1.61223</v>
+        <v>1.48769</v>
       </c>
       <c r="D72" t="n">
-        <v>1.43966</v>
+        <v>1.34169</v>
       </c>
     </row>
     <row r="73">
@@ -6240,13 +6240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.91001</v>
+        <v>1.74722</v>
       </c>
       <c r="C73" t="n">
-        <v>1.63402</v>
+        <v>1.51573</v>
       </c>
       <c r="D73" t="n">
-        <v>1.46274</v>
+        <v>1.36505</v>
       </c>
     </row>
     <row r="74">
@@ -6254,13 +6254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.94826</v>
+        <v>1.78053</v>
       </c>
       <c r="C74" t="n">
-        <v>1.66215</v>
+        <v>1.54202</v>
       </c>
       <c r="D74" t="n">
-        <v>1.48647</v>
+        <v>1.38379</v>
       </c>
     </row>
     <row r="75">
@@ -6268,13 +6268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.98415</v>
+        <v>1.81378</v>
       </c>
       <c r="C75" t="n">
-        <v>1.67802</v>
+        <v>1.5665</v>
       </c>
       <c r="D75" t="n">
-        <v>1.5112</v>
+        <v>1.40456</v>
       </c>
     </row>
     <row r="76">
@@ -6282,13 +6282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.04962</v>
+        <v>1.87302</v>
       </c>
       <c r="C76" t="n">
-        <v>1.69555</v>
+        <v>1.59095</v>
       </c>
       <c r="D76" t="n">
-        <v>1.53561</v>
+        <v>1.42684</v>
       </c>
     </row>
     <row r="77">
@@ -6296,13 +6296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.08668</v>
+        <v>1.89956</v>
       </c>
       <c r="C77" t="n">
-        <v>1.71917</v>
+        <v>1.61367</v>
       </c>
       <c r="D77" t="n">
-        <v>1.55601</v>
+        <v>1.44518</v>
       </c>
     </row>
     <row r="78">
@@ -6310,13 +6310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.11588</v>
+        <v>1.9296</v>
       </c>
       <c r="C78" t="n">
-        <v>1.76803</v>
+        <v>1.66493</v>
       </c>
       <c r="D78" t="n">
-        <v>1.63007</v>
+        <v>1.509</v>
       </c>
     </row>
     <row r="79">
@@ -6324,13 +6324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.15102</v>
+        <v>1.96821</v>
       </c>
       <c r="C79" t="n">
-        <v>1.78581</v>
+        <v>1.68955</v>
       </c>
       <c r="D79" t="n">
-        <v>1.64775</v>
+        <v>1.52693</v>
       </c>
     </row>
     <row r="80">
@@ -6338,13 +6338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.18323</v>
+        <v>1.99514</v>
       </c>
       <c r="C80" t="n">
-        <v>1.80412</v>
+        <v>1.6958</v>
       </c>
       <c r="D80" t="n">
-        <v>1.67327</v>
+        <v>1.54858</v>
       </c>
     </row>
     <row r="81">
@@ -6352,13 +6352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.20924</v>
+        <v>2.02308</v>
       </c>
       <c r="C81" t="n">
-        <v>1.82044</v>
+        <v>1.70659</v>
       </c>
       <c r="D81" t="n">
-        <v>1.69244</v>
+        <v>1.56748</v>
       </c>
     </row>
     <row r="82">
@@ -6366,13 +6366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.2327</v>
+        <v>2.04814</v>
       </c>
       <c r="C82" t="n">
-        <v>1.8341</v>
+        <v>1.71973</v>
       </c>
       <c r="D82" t="n">
-        <v>1.70785</v>
+        <v>1.58427</v>
       </c>
     </row>
     <row r="83">
@@ -6380,13 +6380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.25944</v>
+        <v>2.07419</v>
       </c>
       <c r="C83" t="n">
-        <v>1.84907</v>
+        <v>1.73563</v>
       </c>
       <c r="D83" t="n">
-        <v>1.72724</v>
+        <v>1.60282</v>
       </c>
     </row>
     <row r="84">
@@ -6394,13 +6394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.29496</v>
+        <v>2.09997</v>
       </c>
       <c r="C84" t="n">
-        <v>1.86273</v>
+        <v>1.75077</v>
       </c>
       <c r="D84" t="n">
-        <v>1.74348</v>
+        <v>1.61741</v>
       </c>
     </row>
     <row r="85">
@@ -6408,13 +6408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.32319</v>
+        <v>2.12119</v>
       </c>
       <c r="C85" t="n">
-        <v>1.87877</v>
+        <v>1.75888</v>
       </c>
       <c r="D85" t="n">
-        <v>1.766</v>
+        <v>1.63087</v>
       </c>
     </row>
     <row r="86">
@@ -6422,13 +6422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.34743</v>
+        <v>2.14659</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89457</v>
+        <v>1.75624</v>
       </c>
       <c r="D86" t="n">
-        <v>1.78384</v>
+        <v>1.64692</v>
       </c>
     </row>
     <row r="87">
@@ -6436,13 +6436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.37065</v>
+        <v>2.16969</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90811</v>
+        <v>1.77165</v>
       </c>
       <c r="D87" t="n">
-        <v>1.79751</v>
+        <v>1.66047</v>
       </c>
     </row>
     <row r="88">
@@ -6450,13 +6450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.38774</v>
+        <v>2.19413</v>
       </c>
       <c r="C88" t="n">
-        <v>1.91913</v>
+        <v>1.78241</v>
       </c>
       <c r="D88" t="n">
-        <v>1.81299</v>
+        <v>1.67632</v>
       </c>
     </row>
     <row r="89">
@@ -6464,13 +6464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.41221</v>
+        <v>2.21674</v>
       </c>
       <c r="C89" t="n">
-        <v>1.93732</v>
+        <v>1.79913</v>
       </c>
       <c r="D89" t="n">
-        <v>1.83254</v>
+        <v>1.69209</v>
       </c>
     </row>
     <row r="90">
@@ -6478,13 +6478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.42701</v>
+        <v>2.23776</v>
       </c>
       <c r="C90" t="n">
-        <v>1.94925</v>
+        <v>1.80974</v>
       </c>
       <c r="D90" t="n">
-        <v>1.84595</v>
+        <v>1.70555</v>
       </c>
     </row>
     <row r="91">
@@ -6492,13 +6492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.44408</v>
+        <v>2.25664</v>
       </c>
       <c r="C91" t="n">
-        <v>1.96041</v>
+        <v>1.81417</v>
       </c>
       <c r="D91" t="n">
-        <v>1.86003</v>
+        <v>1.71909</v>
       </c>
     </row>
     <row r="92">
@@ -6506,13 +6506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.46626</v>
+        <v>2.27687</v>
       </c>
       <c r="C92" t="n">
-        <v>1.97728</v>
+        <v>1.82892</v>
       </c>
       <c r="D92" t="n">
-        <v>1.89966</v>
+        <v>1.75687</v>
       </c>
     </row>
     <row r="93">
@@ -6520,13 +6520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.48449</v>
+        <v>2.29627</v>
       </c>
       <c r="C93" t="n">
-        <v>1.98788</v>
+        <v>1.83841</v>
       </c>
       <c r="D93" t="n">
-        <v>1.92279</v>
+        <v>1.77227</v>
       </c>
     </row>
     <row r="94">
@@ -6534,13 +6534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.50243</v>
+        <v>2.31439</v>
       </c>
       <c r="C94" t="n">
-        <v>1.99564</v>
+        <v>1.84291</v>
       </c>
       <c r="D94" t="n">
-        <v>1.92711</v>
+        <v>1.78489</v>
       </c>
     </row>
     <row r="95">
@@ -6548,13 +6548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.52205</v>
+        <v>2.32712</v>
       </c>
       <c r="C95" t="n">
-        <v>2.00653</v>
+        <v>1.85335</v>
       </c>
       <c r="D95" t="n">
-        <v>1.94594</v>
+        <v>1.79161</v>
       </c>
     </row>
     <row r="96">
@@ -6562,13 +6562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.53994</v>
+        <v>2.34954</v>
       </c>
       <c r="C96" t="n">
-        <v>2.01699</v>
+        <v>1.86192</v>
       </c>
       <c r="D96" t="n">
-        <v>1.95649</v>
+        <v>1.80833</v>
       </c>
     </row>
     <row r="97">
@@ -6576,13 +6576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.55221</v>
+        <v>2.36566</v>
       </c>
       <c r="C97" t="n">
-        <v>2.02599</v>
+        <v>1.86651</v>
       </c>
       <c r="D97" t="n">
-        <v>1.97133</v>
+        <v>1.82196</v>
       </c>
     </row>
     <row r="98">
@@ -6590,13 +6590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.56823</v>
+        <v>2.38397</v>
       </c>
       <c r="C98" t="n">
-        <v>2.03445</v>
+        <v>1.88096</v>
       </c>
       <c r="D98" t="n">
-        <v>1.9789</v>
+        <v>1.82829</v>
       </c>
     </row>
     <row r="99">
@@ -6604,13 +6604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.58509</v>
+        <v>2.39933</v>
       </c>
       <c r="C99" t="n">
-        <v>2.04397</v>
+        <v>1.88347</v>
       </c>
       <c r="D99" t="n">
-        <v>1.98573</v>
+        <v>1.84437</v>
       </c>
     </row>
     <row r="100">
@@ -6618,13 +6618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.60174</v>
+        <v>2.41425</v>
       </c>
       <c r="C100" t="n">
-        <v>2.05345</v>
+        <v>1.89764</v>
       </c>
       <c r="D100" t="n">
-        <v>2.00679</v>
+        <v>1.85208</v>
       </c>
     </row>
     <row r="101">
@@ -6632,13 +6632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.61571</v>
+        <v>2.42929</v>
       </c>
       <c r="C101" t="n">
-        <v>2.0606</v>
+        <v>1.90385</v>
       </c>
       <c r="D101" t="n">
-        <v>2.016</v>
+        <v>1.86212</v>
       </c>
     </row>
     <row r="102">
@@ -6646,13 +6646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.63004</v>
+        <v>2.44184</v>
       </c>
       <c r="C102" t="n">
-        <v>2.07092</v>
+        <v>1.90264</v>
       </c>
       <c r="D102" t="n">
-        <v>2.02785</v>
+        <v>1.87045</v>
       </c>
     </row>
     <row r="103">
@@ -6660,13 +6660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.64522</v>
+        <v>2.45698</v>
       </c>
       <c r="C103" t="n">
-        <v>2.075</v>
+        <v>1.91133</v>
       </c>
       <c r="D103" t="n">
-        <v>2.02371</v>
+        <v>1.88234</v>
       </c>
     </row>
     <row r="104">
@@ -6674,13 +6674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.65799</v>
+        <v>2.4714</v>
       </c>
       <c r="C104" t="n">
-        <v>2.08476</v>
+        <v>1.92532</v>
       </c>
       <c r="D104" t="n">
-        <v>2.04513</v>
+        <v>1.8907</v>
       </c>
     </row>
     <row r="105">
@@ -6688,13 +6688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.6569</v>
+        <v>2.47064</v>
       </c>
       <c r="C105" t="n">
-        <v>2.09446</v>
+        <v>1.92721</v>
       </c>
       <c r="D105" t="n">
-        <v>2.0522</v>
+        <v>1.90125</v>
       </c>
     </row>
     <row r="106">
@@ -6702,13 +6702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.67476</v>
+        <v>2.48484</v>
       </c>
       <c r="C106" t="n">
-        <v>2.10369</v>
+        <v>1.94382</v>
       </c>
       <c r="D106" t="n">
-        <v>2.04874</v>
+        <v>1.90974</v>
       </c>
     </row>
     <row r="107">
@@ -6716,13 +6716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.68612</v>
+        <v>2.49643</v>
       </c>
       <c r="C107" t="n">
-        <v>2.09782</v>
+        <v>1.93183</v>
       </c>
       <c r="D107" t="n">
-        <v>2.06573</v>
+        <v>1.93013</v>
       </c>
     </row>
     <row r="108">
@@ -6730,13 +6730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.70097</v>
+        <v>2.50678</v>
       </c>
       <c r="C108" t="n">
-        <v>2.10765</v>
+        <v>1.93745</v>
       </c>
       <c r="D108" t="n">
-        <v>2.10536</v>
+        <v>1.94284</v>
       </c>
     </row>
     <row r="109">
@@ -6744,13 +6744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.70884</v>
+        <v>2.51807</v>
       </c>
       <c r="C109" t="n">
-        <v>2.11094</v>
+        <v>1.94249</v>
       </c>
       <c r="D109" t="n">
-        <v>2.08014</v>
+        <v>1.95049</v>
       </c>
     </row>
     <row r="110">
@@ -6758,13 +6758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.71698</v>
+        <v>2.52673</v>
       </c>
       <c r="C110" t="n">
-        <v>2.11487</v>
+        <v>1.95378</v>
       </c>
       <c r="D110" t="n">
-        <v>2.11451</v>
+        <v>1.95898</v>
       </c>
     </row>
     <row r="111">
@@ -6772,13 +6772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.7304</v>
+        <v>2.53902</v>
       </c>
       <c r="C111" t="n">
-        <v>2.12041</v>
+        <v>1.95205</v>
       </c>
       <c r="D111" t="n">
-        <v>2.12023</v>
+        <v>1.96579</v>
       </c>
     </row>
     <row r="112">
@@ -6786,13 +6786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.74062</v>
+        <v>2.54923</v>
       </c>
       <c r="C112" t="n">
-        <v>2.12665</v>
+        <v>1.95905</v>
       </c>
       <c r="D112" t="n">
-        <v>2.12098</v>
+        <v>1.97709</v>
       </c>
     </row>
     <row r="113">
@@ -6800,13 +6800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.7525</v>
+        <v>2.56073</v>
       </c>
       <c r="C113" t="n">
-        <v>2.13306</v>
+        <v>1.9649</v>
       </c>
       <c r="D113" t="n">
-        <v>2.12301</v>
+        <v>1.98422</v>
       </c>
     </row>
     <row r="114">
@@ -6814,13 +6814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.7624</v>
+        <v>2.571</v>
       </c>
       <c r="C114" t="n">
-        <v>2.14024</v>
+        <v>1.97061</v>
       </c>
       <c r="D114" t="n">
-        <v>2.14121</v>
+        <v>1.98554</v>
       </c>
     </row>
     <row r="115">
@@ -6828,13 +6828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.77204</v>
+        <v>2.58056</v>
       </c>
       <c r="C115" t="n">
-        <v>2.14568</v>
+        <v>1.97823</v>
       </c>
       <c r="D115" t="n">
-        <v>2.1468</v>
+        <v>1.99488</v>
       </c>
     </row>
     <row r="116">
@@ -6842,13 +6842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.7842</v>
+        <v>2.59065</v>
       </c>
       <c r="C116" t="n">
-        <v>2.15137</v>
+        <v>1.98053</v>
       </c>
       <c r="D116" t="n">
-        <v>2.12908</v>
+        <v>2.00087</v>
       </c>
     </row>
     <row r="117">
@@ -6856,13 +6856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.79546</v>
+        <v>2.60304</v>
       </c>
       <c r="C117" t="n">
-        <v>2.15768</v>
+        <v>1.98968</v>
       </c>
       <c r="D117" t="n">
-        <v>2.13346</v>
+        <v>2.01043</v>
       </c>
     </row>
     <row r="118">
@@ -6870,13 +6870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.80999</v>
+        <v>2.61277</v>
       </c>
       <c r="C118" t="n">
-        <v>2.1641</v>
+        <v>1.99462</v>
       </c>
       <c r="D118" t="n">
-        <v>2.14313</v>
+        <v>2.01645</v>
       </c>
     </row>
     <row r="119">
@@ -6884,13 +6884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.79496</v>
+        <v>2.60015</v>
       </c>
       <c r="C119" t="n">
-        <v>2.16904</v>
+        <v>2.00797</v>
       </c>
       <c r="D119" t="n">
-        <v>2.15723</v>
+        <v>2.02288</v>
       </c>
     </row>
   </sheetData>
@@ -6939,13 +6939,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.450617</v>
+        <v>0.44732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.349239</v>
+        <v>0.342785</v>
       </c>
       <c r="D2" t="n">
-        <v>0.355753</v>
+        <v>0.353109</v>
       </c>
     </row>
     <row r="3">
@@ -6953,13 +6953,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.455869</v>
+        <v>0.451023</v>
       </c>
       <c r="C3" t="n">
-        <v>0.352016</v>
+        <v>0.347441</v>
       </c>
       <c r="D3" t="n">
-        <v>0.359453</v>
+        <v>0.356109</v>
       </c>
     </row>
     <row r="4">
@@ -6967,13 +6967,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.456771</v>
+        <v>0.453914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.358849</v>
+        <v>0.352303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362185</v>
+        <v>0.359376</v>
       </c>
     </row>
     <row r="5">
@@ -6981,13 +6981,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.459934</v>
+        <v>0.457555</v>
       </c>
       <c r="C5" t="n">
-        <v>0.362103</v>
+        <v>0.356418</v>
       </c>
       <c r="D5" t="n">
-        <v>0.364661</v>
+        <v>0.361792</v>
       </c>
     </row>
     <row r="6">
@@ -6995,13 +6995,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4671</v>
+        <v>0.464795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.362809</v>
+        <v>0.356661</v>
       </c>
       <c r="D6" t="n">
-        <v>0.366937</v>
+        <v>0.36392</v>
       </c>
     </row>
     <row r="7">
@@ -7009,13 +7009,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.468881</v>
+        <v>0.467692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.366782</v>
+        <v>0.360681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.368914</v>
+        <v>0.366436</v>
       </c>
     </row>
     <row r="8">
@@ -7023,13 +7023,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.472588</v>
+        <v>0.471463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.372093</v>
+        <v>0.366056</v>
       </c>
       <c r="D8" t="n">
-        <v>0.373139</v>
+        <v>0.370519</v>
       </c>
     </row>
     <row r="9">
@@ -7037,13 +7037,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.475264</v>
+        <v>0.474284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.374244</v>
+        <v>0.369505</v>
       </c>
       <c r="D9" t="n">
-        <v>0.374806</v>
+        <v>0.371264</v>
       </c>
     </row>
     <row r="10">
@@ -7051,13 +7051,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.480036</v>
+        <v>0.479692</v>
       </c>
       <c r="C10" t="n">
-        <v>0.378984</v>
+        <v>0.373303</v>
       </c>
       <c r="D10" t="n">
-        <v>0.377645</v>
+        <v>0.374903</v>
       </c>
     </row>
     <row r="11">
@@ -7065,13 +7065,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.485995</v>
+        <v>0.485845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.365093</v>
+        <v>0.359762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.37476</v>
+        <v>0.371359</v>
       </c>
     </row>
     <row r="12">
@@ -7079,13 +7079,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.474223</v>
+        <v>0.473863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.371945</v>
+        <v>0.364972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.375693</v>
+        <v>0.37351</v>
       </c>
     </row>
     <row r="13">
@@ -7093,13 +7093,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.477065</v>
+        <v>0.476954</v>
       </c>
       <c r="C13" t="n">
-        <v>0.373576</v>
+        <v>0.366353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.378304</v>
+        <v>0.375774</v>
       </c>
     </row>
     <row r="14">
@@ -7107,13 +7107,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.480813</v>
+        <v>0.479601</v>
       </c>
       <c r="C14" t="n">
-        <v>0.376217</v>
+        <v>0.369554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.37967</v>
+        <v>0.377574</v>
       </c>
     </row>
     <row r="15">
@@ -7121,13 +7121,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.483691</v>
+        <v>0.483013</v>
       </c>
       <c r="C15" t="n">
-        <v>0.37704</v>
+        <v>0.373475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.380412</v>
+        <v>0.378384</v>
       </c>
     </row>
     <row r="16">
@@ -7135,13 +7135,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.487116</v>
+        <v>0.487554</v>
       </c>
       <c r="C16" t="n">
-        <v>0.377994</v>
+        <v>0.374374</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381961</v>
+        <v>0.379923</v>
       </c>
     </row>
     <row r="17">
@@ -7149,13 +7149,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.489994</v>
+        <v>0.490458</v>
       </c>
       <c r="C17" t="n">
-        <v>0.381239</v>
+        <v>0.377377</v>
       </c>
       <c r="D17" t="n">
-        <v>0.383891</v>
+        <v>0.382037</v>
       </c>
     </row>
     <row r="18">
@@ -7163,13 +7163,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.493563</v>
+        <v>0.494131</v>
       </c>
       <c r="C18" t="n">
-        <v>0.382047</v>
+        <v>0.379922</v>
       </c>
       <c r="D18" t="n">
-        <v>0.386029</v>
+        <v>0.383761</v>
       </c>
     </row>
     <row r="19">
@@ -7177,13 +7177,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.49452</v>
+        <v>0.496009</v>
       </c>
       <c r="C19" t="n">
-        <v>0.385926</v>
+        <v>0.382307</v>
       </c>
       <c r="D19" t="n">
-        <v>0.387621</v>
+        <v>0.385655</v>
       </c>
     </row>
     <row r="20">
@@ -7191,13 +7191,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.498192</v>
+        <v>0.499639</v>
       </c>
       <c r="C20" t="n">
-        <v>0.387845</v>
+        <v>0.383087</v>
       </c>
       <c r="D20" t="n">
-        <v>0.389549</v>
+        <v>0.387417</v>
       </c>
     </row>
     <row r="21">
@@ -7205,13 +7205,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.500799</v>
+        <v>0.502132</v>
       </c>
       <c r="C21" t="n">
-        <v>0.391506</v>
+        <v>0.38783</v>
       </c>
       <c r="D21" t="n">
-        <v>0.391793</v>
+        <v>0.390098</v>
       </c>
     </row>
     <row r="22">
@@ -7219,13 +7219,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.503864</v>
+        <v>0.505906</v>
       </c>
       <c r="C22" t="n">
-        <v>0.394722</v>
+        <v>0.38918</v>
       </c>
       <c r="D22" t="n">
-        <v>0.392832</v>
+        <v>0.39071</v>
       </c>
     </row>
     <row r="23">
@@ -7233,13 +7233,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.505792</v>
+        <v>0.508062</v>
       </c>
       <c r="C23" t="n">
-        <v>0.395974</v>
+        <v>0.391622</v>
       </c>
       <c r="D23" t="n">
-        <v>0.393765</v>
+        <v>0.391869</v>
       </c>
     </row>
     <row r="24">
@@ -7247,13 +7247,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.509898</v>
+        <v>0.512036</v>
       </c>
       <c r="C24" t="n">
-        <v>0.399388</v>
+        <v>0.395219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.396153</v>
+        <v>0.394336</v>
       </c>
     </row>
     <row r="25">
@@ -7261,13 +7261,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.511767</v>
+        <v>0.514328</v>
       </c>
       <c r="C25" t="n">
-        <v>0.401692</v>
+        <v>0.39843</v>
       </c>
       <c r="D25" t="n">
-        <v>0.397535</v>
+        <v>0.396243</v>
       </c>
     </row>
     <row r="26">
@@ -7275,13 +7275,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.516069</v>
+        <v>0.518173</v>
       </c>
       <c r="C26" t="n">
-        <v>0.383029</v>
+        <v>0.379798</v>
       </c>
       <c r="D26" t="n">
-        <v>0.392708</v>
+        <v>0.392671</v>
       </c>
     </row>
     <row r="27">
@@ -7289,13 +7289,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.499591</v>
+        <v>0.5017239999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.384862</v>
+        <v>0.382013</v>
       </c>
       <c r="D27" t="n">
-        <v>0.396711</v>
+        <v>0.395552</v>
       </c>
     </row>
     <row r="28">
@@ -7303,13 +7303,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.502646</v>
+        <v>0.504758</v>
       </c>
       <c r="C28" t="n">
-        <v>0.386796</v>
+        <v>0.383733</v>
       </c>
       <c r="D28" t="n">
-        <v>0.399919</v>
+        <v>0.397036</v>
       </c>
     </row>
     <row r="29">
@@ -7317,13 +7317,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.504534</v>
+        <v>0.506816</v>
       </c>
       <c r="C29" t="n">
-        <v>0.38757</v>
+        <v>0.384264</v>
       </c>
       <c r="D29" t="n">
-        <v>0.399846</v>
+        <v>0.398497</v>
       </c>
     </row>
     <row r="30">
@@ -7331,13 +7331,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.507339</v>
+        <v>0.508982</v>
       </c>
       <c r="C30" t="n">
-        <v>0.388946</v>
+        <v>0.386334</v>
       </c>
       <c r="D30" t="n">
-        <v>0.401242</v>
+        <v>0.39879</v>
       </c>
     </row>
     <row r="31">
@@ -7345,13 +7345,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.509938</v>
+        <v>0.51142</v>
       </c>
       <c r="C31" t="n">
-        <v>0.390919</v>
+        <v>0.388223</v>
       </c>
       <c r="D31" t="n">
-        <v>0.401697</v>
+        <v>0.400406</v>
       </c>
     </row>
     <row r="32">
@@ -7359,13 +7359,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.512083</v>
+        <v>0.512714</v>
       </c>
       <c r="C32" t="n">
-        <v>0.392956</v>
+        <v>0.390068</v>
       </c>
       <c r="D32" t="n">
-        <v>0.402701</v>
+        <v>0.400634</v>
       </c>
     </row>
     <row r="33">
@@ -7373,13 +7373,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.514327</v>
+        <v>0.515309</v>
       </c>
       <c r="C33" t="n">
-        <v>0.394493</v>
+        <v>0.391941</v>
       </c>
       <c r="D33" t="n">
-        <v>0.404923</v>
+        <v>0.402233</v>
       </c>
     </row>
     <row r="34">
@@ -7387,13 +7387,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.516711</v>
+        <v>0.5169550000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.398388</v>
+        <v>0.395134</v>
       </c>
       <c r="D34" t="n">
-        <v>0.406837</v>
+        <v>0.402827</v>
       </c>
     </row>
     <row r="35">
@@ -7401,13 +7401,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.519305</v>
+        <v>0.51967</v>
       </c>
       <c r="C35" t="n">
-        <v>0.400089</v>
+        <v>0.396982</v>
       </c>
       <c r="D35" t="n">
-        <v>0.408658</v>
+        <v>0.405738</v>
       </c>
     </row>
     <row r="36">
@@ -7415,13 +7415,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5210669999999999</v>
+        <v>0.521459</v>
       </c>
       <c r="C36" t="n">
-        <v>0.403243</v>
+        <v>0.398113</v>
       </c>
       <c r="D36" t="n">
-        <v>0.409703</v>
+        <v>0.406627</v>
       </c>
     </row>
     <row r="37">
@@ -7429,13 +7429,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.523797</v>
+        <v>0.523265</v>
       </c>
       <c r="C37" t="n">
-        <v>0.40559</v>
+        <v>0.400762</v>
       </c>
       <c r="D37" t="n">
-        <v>0.411569</v>
+        <v>0.408065</v>
       </c>
     </row>
     <row r="38">
@@ -7443,13 +7443,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.527478</v>
+        <v>0.527466</v>
       </c>
       <c r="C38" t="n">
-        <v>0.408062</v>
+        <v>0.404055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.41296</v>
+        <v>0.409523</v>
       </c>
     </row>
     <row r="39">
@@ -7457,13 +7457,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.530141</v>
+        <v>0.529722</v>
       </c>
       <c r="C39" t="n">
-        <v>0.410067</v>
+        <v>0.40662</v>
       </c>
       <c r="D39" t="n">
-        <v>0.413172</v>
+        <v>0.409996</v>
       </c>
     </row>
     <row r="40">
@@ -7471,13 +7471,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.53337</v>
+        <v>0.531462</v>
       </c>
       <c r="C40" t="n">
-        <v>0.391798</v>
+        <v>0.387731</v>
       </c>
       <c r="D40" t="n">
-        <v>0.407749</v>
+        <v>0.402649</v>
       </c>
     </row>
     <row r="41">
@@ -7485,13 +7485,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.516301</v>
+        <v>0.513828</v>
       </c>
       <c r="C41" t="n">
-        <v>0.39425</v>
+        <v>0.390034</v>
       </c>
       <c r="D41" t="n">
-        <v>0.40864</v>
+        <v>0.404853</v>
       </c>
     </row>
     <row r="42">
@@ -7499,13 +7499,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.522194</v>
+        <v>0.515209</v>
       </c>
       <c r="C42" t="n">
-        <v>0.397695</v>
+        <v>0.390945</v>
       </c>
       <c r="D42" t="n">
-        <v>0.413351</v>
+        <v>0.404718</v>
       </c>
     </row>
     <row r="43">
@@ -7513,13 +7513,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.529744</v>
+        <v>0.517151</v>
       </c>
       <c r="C43" t="n">
-        <v>0.402269</v>
+        <v>0.393397</v>
       </c>
       <c r="D43" t="n">
-        <v>0.419217</v>
+        <v>0.406239</v>
       </c>
     </row>
     <row r="44">
@@ -7527,13 +7527,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.545959</v>
+        <v>0.520556</v>
       </c>
       <c r="C44" t="n">
-        <v>0.404457</v>
+        <v>0.394059</v>
       </c>
       <c r="D44" t="n">
-        <v>0.43469</v>
+        <v>0.414562</v>
       </c>
     </row>
     <row r="45">
@@ -7541,13 +7541,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.553556</v>
+        <v>0.534772</v>
       </c>
       <c r="C45" t="n">
-        <v>0.406649</v>
+        <v>0.396917</v>
       </c>
       <c r="D45" t="n">
-        <v>0.43929</v>
+        <v>0.425705</v>
       </c>
     </row>
     <row r="46">
@@ -7555,13 +7555,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.564322</v>
+        <v>0.544023</v>
       </c>
       <c r="C46" t="n">
-        <v>0.413297</v>
+        <v>0.409137</v>
       </c>
       <c r="D46" t="n">
-        <v>0.446279</v>
+        <v>0.436593</v>
       </c>
     </row>
     <row r="47">
@@ -7569,13 +7569,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5904160000000001</v>
+        <v>0.557416</v>
       </c>
       <c r="C47" t="n">
-        <v>0.431036</v>
+        <v>0.412937</v>
       </c>
       <c r="D47" t="n">
-        <v>0.47331</v>
+        <v>0.45052</v>
       </c>
     </row>
     <row r="48">
@@ -7583,13 +7583,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.601837</v>
+        <v>0.56453</v>
       </c>
       <c r="C48" t="n">
-        <v>0.442506</v>
+        <v>0.415262</v>
       </c>
       <c r="D48" t="n">
-        <v>0.47893</v>
+        <v>0.46066</v>
       </c>
     </row>
     <row r="49">
@@ -7597,13 +7597,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6266969999999999</v>
+        <v>0.589407</v>
       </c>
       <c r="C49" t="n">
-        <v>0.450614</v>
+        <v>0.437999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.500856</v>
+        <v>0.484819</v>
       </c>
     </row>
     <row r="50">
@@ -7611,13 +7611,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.654682</v>
+        <v>0.613509</v>
       </c>
       <c r="C50" t="n">
-        <v>0.477562</v>
+        <v>0.441112</v>
       </c>
       <c r="D50" t="n">
-        <v>0.530654</v>
+        <v>0.511276</v>
       </c>
     </row>
     <row r="51">
@@ -7625,13 +7625,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.692609</v>
+        <v>0.637729</v>
       </c>
       <c r="C51" t="n">
-        <v>0.491105</v>
+        <v>0.467993</v>
       </c>
       <c r="D51" t="n">
-        <v>0.557218</v>
+        <v>0.532326</v>
       </c>
     </row>
     <row r="52">
@@ -7639,13 +7639,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7315430000000001</v>
+        <v>0.67879</v>
       </c>
       <c r="C52" t="n">
-        <v>0.517358</v>
+        <v>0.498779</v>
       </c>
       <c r="D52" t="n">
-        <v>0.599411</v>
+        <v>0.593732</v>
       </c>
     </row>
     <row r="53">
@@ -7653,13 +7653,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.76956</v>
+        <v>0.741452</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5463440000000001</v>
+        <v>0.534054</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6398470000000001</v>
+        <v>0.625735</v>
       </c>
     </row>
     <row r="54">
@@ -7667,13 +7667,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.793942</v>
+        <v>0.804251</v>
       </c>
       <c r="C54" t="n">
-        <v>0.561746</v>
+        <v>0.56136</v>
       </c>
       <c r="D54" t="n">
-        <v>0.663617</v>
+        <v>0.681361</v>
       </c>
     </row>
     <row r="55">
@@ -7681,13 +7681,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.828471</v>
+        <v>0.834784</v>
       </c>
       <c r="C55" t="n">
-        <v>0.581306</v>
+        <v>0.575568</v>
       </c>
       <c r="D55" t="n">
-        <v>0.691019</v>
+        <v>0.713767</v>
       </c>
     </row>
     <row r="56">
@@ -7695,13 +7695,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.849366</v>
+        <v>0.855083</v>
       </c>
       <c r="C56" t="n">
-        <v>0.599243</v>
+        <v>0.628972</v>
       </c>
       <c r="D56" t="n">
-        <v>0.732583</v>
+        <v>0.752768</v>
       </c>
     </row>
     <row r="57">
@@ -7709,13 +7709,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.917319</v>
+        <v>0.913687</v>
       </c>
       <c r="C57" t="n">
-        <v>0.633208</v>
+        <v>0.669481</v>
       </c>
       <c r="D57" t="n">
-        <v>0.785933</v>
+        <v>0.797106</v>
       </c>
     </row>
     <row r="58">
@@ -7723,13 +7723,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.994279</v>
+        <v>0.9715279999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.717151</v>
+        <v>0.731272</v>
       </c>
       <c r="D58" t="n">
-        <v>0.844989</v>
+        <v>0.841118</v>
       </c>
     </row>
     <row r="59">
@@ -7737,13 +7737,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.04943</v>
+        <v>1.0288</v>
       </c>
       <c r="C59" t="n">
-        <v>0.780655</v>
+        <v>0.806369</v>
       </c>
       <c r="D59" t="n">
-        <v>0.88406</v>
+        <v>0.8787740000000001</v>
       </c>
     </row>
     <row r="60">
@@ -7751,13 +7751,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11467</v>
+        <v>1.09731</v>
       </c>
       <c r="C60" t="n">
-        <v>0.825717</v>
+        <v>0.861152</v>
       </c>
       <c r="D60" t="n">
-        <v>0.926567</v>
+        <v>0.928633</v>
       </c>
     </row>
     <row r="61">
@@ -7765,13 +7765,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>1.18451</v>
+        <v>1.15345</v>
       </c>
       <c r="C61" t="n">
-        <v>0.90573</v>
+        <v>0.916012</v>
       </c>
       <c r="D61" t="n">
-        <v>0.970912</v>
+        <v>0.964673</v>
       </c>
     </row>
     <row r="62">
@@ -7779,13 +7779,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>1.25868</v>
+        <v>1.22005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.967584</v>
+        <v>0.982434</v>
       </c>
       <c r="D62" t="n">
-        <v>1.01862</v>
+        <v>1.00818</v>
       </c>
     </row>
     <row r="63">
@@ -7793,13 +7793,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.33159</v>
+        <v>1.28924</v>
       </c>
       <c r="C63" t="n">
-        <v>1.04378</v>
+        <v>1.05621</v>
       </c>
       <c r="D63" t="n">
-        <v>1.065</v>
+        <v>1.05176</v>
       </c>
     </row>
     <row r="64">
@@ -7807,13 +7807,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.39682</v>
+        <v>1.35166</v>
       </c>
       <c r="C64" t="n">
-        <v>1.10872</v>
+        <v>1.10741</v>
       </c>
       <c r="D64" t="n">
-        <v>1.09711</v>
+        <v>1.08787</v>
       </c>
     </row>
     <row r="65">
@@ -7821,13 +7821,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.46649</v>
+        <v>1.42392</v>
       </c>
       <c r="C65" t="n">
-        <v>1.17822</v>
+        <v>1.16954</v>
       </c>
       <c r="D65" t="n">
-        <v>1.138</v>
+        <v>1.12867</v>
       </c>
     </row>
     <row r="66">
@@ -7835,13 +7835,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.52513</v>
+        <v>1.48662</v>
       </c>
       <c r="C66" t="n">
-        <v>1.23266</v>
+        <v>1.22916</v>
       </c>
       <c r="D66" t="n">
-        <v>1.16977</v>
+        <v>1.16561</v>
       </c>
     </row>
     <row r="67">
@@ -7849,13 +7849,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.58836</v>
+        <v>1.55039</v>
       </c>
       <c r="C67" t="n">
-        <v>1.29066</v>
+        <v>1.28344</v>
       </c>
       <c r="D67" t="n">
-        <v>1.20251</v>
+        <v>1.20019</v>
       </c>
     </row>
     <row r="68">
@@ -7863,13 +7863,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.65184</v>
+        <v>1.61314</v>
       </c>
       <c r="C68" t="n">
-        <v>1.32641</v>
+        <v>1.32078</v>
       </c>
       <c r="D68" t="n">
-        <v>1.24778</v>
+        <v>1.24188</v>
       </c>
     </row>
     <row r="69">
@@ -7877,13 +7877,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.71398</v>
+        <v>1.66947</v>
       </c>
       <c r="C69" t="n">
-        <v>1.38014</v>
+        <v>1.36992</v>
       </c>
       <c r="D69" t="n">
-        <v>1.27372</v>
+        <v>1.26715</v>
       </c>
     </row>
     <row r="70">
@@ -7891,13 +7891,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.73222</v>
+        <v>1.68619</v>
       </c>
       <c r="C70" t="n">
-        <v>1.43077</v>
+        <v>1.42215</v>
       </c>
       <c r="D70" t="n">
-        <v>1.30787</v>
+        <v>1.30153</v>
       </c>
     </row>
     <row r="71">
@@ -7905,13 +7905,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.78446</v>
+        <v>1.74196</v>
       </c>
       <c r="C71" t="n">
-        <v>1.47695</v>
+        <v>1.466</v>
       </c>
       <c r="D71" t="n">
-        <v>1.33749</v>
+        <v>1.32879</v>
       </c>
     </row>
     <row r="72">
@@ -7919,13 +7919,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.83621</v>
+        <v>1.7942</v>
       </c>
       <c r="C72" t="n">
-        <v>1.52393</v>
+        <v>1.51662</v>
       </c>
       <c r="D72" t="n">
-        <v>1.36574</v>
+        <v>1.36177</v>
       </c>
     </row>
     <row r="73">
@@ -7933,13 +7933,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.8842</v>
+        <v>1.84439</v>
       </c>
       <c r="C73" t="n">
-        <v>1.56164</v>
+        <v>1.55788</v>
       </c>
       <c r="D73" t="n">
-        <v>1.39554</v>
+        <v>1.3906</v>
       </c>
     </row>
     <row r="74">
@@ -7947,13 +7947,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.93233</v>
+        <v>1.89449</v>
       </c>
       <c r="C74" t="n">
-        <v>1.5988</v>
+        <v>1.59722</v>
       </c>
       <c r="D74" t="n">
-        <v>1.42122</v>
+        <v>1.42002</v>
       </c>
     </row>
     <row r="75">
@@ -7961,13 +7961,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.97846</v>
+        <v>1.93619</v>
       </c>
       <c r="C75" t="n">
-        <v>1.63785</v>
+        <v>1.63615</v>
       </c>
       <c r="D75" t="n">
-        <v>1.44983</v>
+        <v>1.44453</v>
       </c>
     </row>
     <row r="76">
@@ -7975,13 +7975,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>2.02288</v>
+        <v>1.97706</v>
       </c>
       <c r="C76" t="n">
-        <v>1.67349</v>
+        <v>1.67298</v>
       </c>
       <c r="D76" t="n">
-        <v>1.47751</v>
+        <v>1.46995</v>
       </c>
     </row>
     <row r="77">
@@ -7989,13 +7989,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>2.06588</v>
+        <v>2.01923</v>
       </c>
       <c r="C77" t="n">
-        <v>1.7132</v>
+        <v>1.71027</v>
       </c>
       <c r="D77" t="n">
-        <v>1.50359</v>
+        <v>1.49342</v>
       </c>
     </row>
     <row r="78">
@@ -8003,13 +8003,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>2.10686</v>
+        <v>2.0687</v>
       </c>
       <c r="C78" t="n">
-        <v>1.74557</v>
+        <v>1.74716</v>
       </c>
       <c r="D78" t="n">
-        <v>1.53025</v>
+        <v>1.52616</v>
       </c>
     </row>
     <row r="79">
@@ -8017,13 +8017,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>2.14793</v>
+        <v>2.11117</v>
       </c>
       <c r="C79" t="n">
-        <v>1.77576</v>
+        <v>1.7735</v>
       </c>
       <c r="D79" t="n">
-        <v>1.55671</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="80">
@@ -8031,13 +8031,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.19086</v>
+        <v>2.15699</v>
       </c>
       <c r="C80" t="n">
-        <v>1.79954</v>
+        <v>1.80919</v>
       </c>
       <c r="D80" t="n">
-        <v>1.58175</v>
+        <v>1.5811</v>
       </c>
     </row>
     <row r="81">
@@ -8045,13 +8045,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.23442</v>
+        <v>2.19767</v>
       </c>
       <c r="C81" t="n">
-        <v>1.84408</v>
+        <v>1.83535</v>
       </c>
       <c r="D81" t="n">
-        <v>1.6107</v>
+        <v>1.61119</v>
       </c>
     </row>
     <row r="82">
@@ -8059,13 +8059,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.27741</v>
+        <v>2.2383</v>
       </c>
       <c r="C82" t="n">
-        <v>1.87507</v>
+        <v>1.87039</v>
       </c>
       <c r="D82" t="n">
-        <v>1.63916</v>
+        <v>1.63673</v>
       </c>
     </row>
     <row r="83">
@@ -8073,13 +8073,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.32179</v>
+        <v>2.28061</v>
       </c>
       <c r="C83" t="n">
-        <v>1.8335</v>
+        <v>1.8248</v>
       </c>
       <c r="D83" t="n">
-        <v>1.64958</v>
+        <v>1.65491</v>
       </c>
     </row>
     <row r="84">
@@ -8087,13 +8087,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.36374</v>
+        <v>2.32479</v>
       </c>
       <c r="C84" t="n">
-        <v>1.8477</v>
+        <v>1.84331</v>
       </c>
       <c r="D84" t="n">
-        <v>1.67764</v>
+        <v>1.6771</v>
       </c>
     </row>
     <row r="85">
@@ -8101,13 +8101,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.32654</v>
+        <v>2.2954</v>
       </c>
       <c r="C85" t="n">
-        <v>1.86824</v>
+        <v>1.87196</v>
       </c>
       <c r="D85" t="n">
-        <v>1.6941</v>
+        <v>1.69583</v>
       </c>
     </row>
     <row r="86">
@@ -8115,13 +8115,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35583</v>
+        <v>2.32381</v>
       </c>
       <c r="C86" t="n">
-        <v>1.89224</v>
+        <v>1.89041</v>
       </c>
       <c r="D86" t="n">
-        <v>1.71544</v>
+        <v>1.71676</v>
       </c>
     </row>
     <row r="87">
@@ -8129,13 +8129,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.38433</v>
+        <v>2.35644</v>
       </c>
       <c r="C87" t="n">
-        <v>1.90772</v>
+        <v>1.91026</v>
       </c>
       <c r="D87" t="n">
-        <v>1.73226</v>
+        <v>1.73609</v>
       </c>
     </row>
     <row r="88">
@@ -8143,13 +8143,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.41863</v>
+        <v>2.38986</v>
       </c>
       <c r="C88" t="n">
-        <v>1.93454</v>
+        <v>1.94089</v>
       </c>
       <c r="D88" t="n">
-        <v>1.75455</v>
+        <v>1.76303</v>
       </c>
     </row>
     <row r="89">
@@ -8157,13 +8157,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>2.44663</v>
+        <v>2.41765</v>
       </c>
       <c r="C89" t="n">
-        <v>1.95801</v>
+        <v>1.95874</v>
       </c>
       <c r="D89" t="n">
-        <v>1.77231</v>
+        <v>1.77905</v>
       </c>
     </row>
     <row r="90">
@@ -8171,13 +8171,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.47248</v>
+        <v>2.44614</v>
       </c>
       <c r="C90" t="n">
-        <v>1.9745</v>
+        <v>1.98305</v>
       </c>
       <c r="D90" t="n">
-        <v>1.79494</v>
+        <v>1.80087</v>
       </c>
     </row>
     <row r="91">
@@ -8185,13 +8185,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.50119</v>
+        <v>2.47682</v>
       </c>
       <c r="C91" t="n">
-        <v>1.99794</v>
+        <v>2.00525</v>
       </c>
       <c r="D91" t="n">
-        <v>1.81395</v>
+        <v>1.82294</v>
       </c>
     </row>
     <row r="92">
@@ -8199,13 +8199,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.52996</v>
+        <v>2.50453</v>
       </c>
       <c r="C92" t="n">
-        <v>2.02366</v>
+        <v>2.02929</v>
       </c>
       <c r="D92" t="n">
-        <v>1.83511</v>
+        <v>1.83958</v>
       </c>
     </row>
     <row r="93">
@@ -8213,13 +8213,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.5608</v>
+        <v>2.53466</v>
       </c>
       <c r="C93" t="n">
-        <v>2.04758</v>
+        <v>2.05476</v>
       </c>
       <c r="D93" t="n">
-        <v>1.85305</v>
+        <v>1.86302</v>
       </c>
     </row>
     <row r="94">
@@ -8227,13 +8227,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.59005</v>
+        <v>2.565</v>
       </c>
       <c r="C94" t="n">
-        <v>2.06477</v>
+        <v>2.07926</v>
       </c>
       <c r="D94" t="n">
-        <v>1.87686</v>
+        <v>1.88174</v>
       </c>
     </row>
     <row r="95">
@@ -8241,13 +8241,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.62181</v>
+        <v>2.59595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.09158</v>
+        <v>2.10232</v>
       </c>
       <c r="D95" t="n">
-        <v>1.8947</v>
+        <v>1.90264</v>
       </c>
     </row>
     <row r="96">
@@ -8255,13 +8255,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.6554</v>
+        <v>2.62548</v>
       </c>
       <c r="C96" t="n">
-        <v>2.11748</v>
+        <v>2.12662</v>
       </c>
       <c r="D96" t="n">
-        <v>1.91805</v>
+        <v>1.9194</v>
       </c>
     </row>
     <row r="97">
@@ -8269,13 +8269,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.6882</v>
+        <v>2.66093</v>
       </c>
       <c r="C97" t="n">
-        <v>2.05443</v>
+        <v>2.06406</v>
       </c>
       <c r="D97" t="n">
-        <v>1.92179</v>
+        <v>1.92976</v>
       </c>
     </row>
     <row r="98">
@@ -8283,13 +8283,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.7138</v>
+        <v>2.68929</v>
       </c>
       <c r="C98" t="n">
-        <v>2.0727</v>
+        <v>2.07235</v>
       </c>
       <c r="D98" t="n">
-        <v>1.941</v>
+        <v>1.945</v>
       </c>
     </row>
     <row r="99">
@@ -8297,13 +8297,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.63907</v>
+        <v>2.60542</v>
       </c>
       <c r="C99" t="n">
-        <v>2.08856</v>
+        <v>2.09297</v>
       </c>
       <c r="D99" t="n">
-        <v>1.95354</v>
+        <v>1.96052</v>
       </c>
     </row>
     <row r="100">
@@ -8311,13 +8311,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.66057</v>
+        <v>2.62949</v>
       </c>
       <c r="C100" t="n">
-        <v>2.10623</v>
+        <v>2.1124</v>
       </c>
       <c r="D100" t="n">
-        <v>1.97589</v>
+        <v>1.98116</v>
       </c>
     </row>
     <row r="101">
@@ -8325,13 +8325,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.68549</v>
+        <v>2.65261</v>
       </c>
       <c r="C101" t="n">
-        <v>2.12381</v>
+        <v>2.12674</v>
       </c>
       <c r="D101" t="n">
-        <v>1.9919</v>
+        <v>1.9893</v>
       </c>
     </row>
     <row r="102">
@@ -8339,13 +8339,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.70983</v>
+        <v>2.675</v>
       </c>
       <c r="C102" t="n">
-        <v>2.14362</v>
+        <v>2.14535</v>
       </c>
       <c r="D102" t="n">
-        <v>2.00494</v>
+        <v>2.00262</v>
       </c>
     </row>
     <row r="103">
@@ -8353,13 +8353,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.72939</v>
+        <v>2.69493</v>
       </c>
       <c r="C103" t="n">
-        <v>2.1615</v>
+        <v>2.1621</v>
       </c>
       <c r="D103" t="n">
-        <v>2.01497</v>
+        <v>2.02957</v>
       </c>
     </row>
     <row r="104">
@@ -8367,13 +8367,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.75338</v>
+        <v>2.71805</v>
       </c>
       <c r="C104" t="n">
-        <v>2.17989</v>
+        <v>2.1801</v>
       </c>
       <c r="D104" t="n">
-        <v>2.03802</v>
+        <v>2.04624</v>
       </c>
     </row>
     <row r="105">
@@ -8381,13 +8381,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.77624</v>
+        <v>2.74433</v>
       </c>
       <c r="C105" t="n">
-        <v>2.19951</v>
+        <v>2.20059</v>
       </c>
       <c r="D105" t="n">
-        <v>2.05449</v>
+        <v>2.04782</v>
       </c>
     </row>
     <row r="106">
@@ -8395,13 +8395,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.80341</v>
+        <v>2.76565</v>
       </c>
       <c r="C106" t="n">
-        <v>2.21768</v>
+        <v>2.21697</v>
       </c>
       <c r="D106" t="n">
-        <v>2.07134</v>
+        <v>2.0688</v>
       </c>
     </row>
     <row r="107">
@@ -8409,13 +8409,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.82702</v>
+        <v>2.78729</v>
       </c>
       <c r="C107" t="n">
-        <v>2.2353</v>
+        <v>2.23736</v>
       </c>
       <c r="D107" t="n">
-        <v>2.08708</v>
+        <v>2.08724</v>
       </c>
     </row>
     <row r="108">
@@ -8423,13 +8423,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.85045</v>
+        <v>2.81149</v>
       </c>
       <c r="C108" t="n">
-        <v>2.2602</v>
+        <v>2.2587</v>
       </c>
       <c r="D108" t="n">
-        <v>2.10233</v>
+        <v>2.08831</v>
       </c>
     </row>
     <row r="109">
@@ -8437,13 +8437,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.87478</v>
+        <v>2.8357</v>
       </c>
       <c r="C109" t="n">
-        <v>2.2781</v>
+        <v>2.28101</v>
       </c>
       <c r="D109" t="n">
-        <v>2.11705</v>
+        <v>2.1121</v>
       </c>
     </row>
     <row r="110">
@@ -8451,13 +8451,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.89952</v>
+        <v>2.86128</v>
       </c>
       <c r="C110" t="n">
-        <v>2.30141</v>
+        <v>2.303</v>
       </c>
       <c r="D110" t="n">
-        <v>2.13543</v>
+        <v>2.1413</v>
       </c>
     </row>
     <row r="111">
@@ -8465,13 +8465,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.92436</v>
+        <v>2.88865</v>
       </c>
       <c r="C111" t="n">
-        <v>2.19399</v>
+        <v>2.19697</v>
       </c>
       <c r="D111" t="n">
-        <v>2.10473</v>
+        <v>2.1093</v>
       </c>
     </row>
     <row r="112">
@@ -8479,13 +8479,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.94967</v>
+        <v>2.9116</v>
       </c>
       <c r="C112" t="n">
-        <v>2.21069</v>
+        <v>2.20715</v>
       </c>
       <c r="D112" t="n">
-        <v>2.12385</v>
+        <v>2.13094</v>
       </c>
     </row>
     <row r="113">
@@ -8493,13 +8493,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.97636</v>
+        <v>2.93918</v>
       </c>
       <c r="C113" t="n">
-        <v>2.21802</v>
+        <v>2.22382</v>
       </c>
       <c r="D113" t="n">
-        <v>2.13445</v>
+        <v>2.14723</v>
       </c>
     </row>
     <row r="114">
@@ -8507,13 +8507,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.85352</v>
+        <v>2.81233</v>
       </c>
       <c r="C114" t="n">
-        <v>2.23996</v>
+        <v>2.23875</v>
       </c>
       <c r="D114" t="n">
-        <v>2.14999</v>
+        <v>2.15218</v>
       </c>
     </row>
     <row r="115">
@@ -8521,13 +8521,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.86886</v>
+        <v>2.83288</v>
       </c>
       <c r="C115" t="n">
-        <v>2.25426</v>
+        <v>2.25415</v>
       </c>
       <c r="D115" t="n">
-        <v>2.16328</v>
+        <v>2.14455</v>
       </c>
     </row>
     <row r="116">
@@ -8535,13 +8535,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>2.88905</v>
+        <v>2.84936</v>
       </c>
       <c r="C116" t="n">
-        <v>2.2692</v>
+        <v>2.26963</v>
       </c>
       <c r="D116" t="n">
-        <v>2.17124</v>
+        <v>2.1806</v>
       </c>
     </row>
     <row r="117">
@@ -8549,13 +8549,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.91178</v>
+        <v>2.86957</v>
       </c>
       <c r="C117" t="n">
-        <v>2.28458</v>
+        <v>2.28424</v>
       </c>
       <c r="D117" t="n">
-        <v>2.17824</v>
+        <v>2.19865</v>
       </c>
     </row>
     <row r="118">
@@ -8563,13 +8563,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.93078</v>
+        <v>2.88787</v>
       </c>
       <c r="C118" t="n">
-        <v>2.29832</v>
+        <v>2.30249</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19968</v>
+        <v>2.17733</v>
       </c>
     </row>
     <row r="119">
@@ -8577,13 +8577,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.94725</v>
+        <v>2.9079</v>
       </c>
       <c r="C119" t="n">
-        <v>2.31647</v>
+        <v>2.31631</v>
       </c>
       <c r="D119" t="n">
-        <v>2.21534</v>
+        <v>2.19135</v>
       </c>
     </row>
   </sheetData>
